--- a/Mathematical Modeling_E/表4-答案文件.xlsx
+++ b/Mathematical Modeling_E/表4-答案文件.xlsx
@@ -1,21 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11010"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\我的坚果云\2023.5数学建模\8.21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corneliusdeng/UESTC/Mathematical Modeling_E/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C6B0032-9CAE-4606-9E70-FD12647B3296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB376A60-30DF-F545-8AFF-5DE779D0207D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1530" windowWidth="29040" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -627,7 +638,7 @@
     <numFmt numFmtId="176" formatCode="000000"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -744,7 +755,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -771,6 +782,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1002,25 +1022,25 @@
   <dimension ref="A1:J163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="8.625" style="6"/>
+    <col min="1" max="1" width="8.6640625" style="6"/>
     <col min="2" max="2" width="19.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.625" style="5"/>
-    <col min="9" max="9" width="21.875" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.25" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.625" style="6"/>
+    <col min="5" max="5" width="15.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" style="5" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" style="5"/>
+    <col min="9" max="9" width="24" style="11" customWidth="1"/>
+    <col min="10" max="10" width="16.1640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.6640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1031,7 +1051,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="17">
       <c r="B2" s="16" t="s">
         <v>172</v>
       </c>
@@ -1060,7 +1080,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="17">
       <c r="B3" s="7"/>
       <c r="C3" s="2" t="s">
         <v>9</v>
@@ -1075,1284 +1095,5124 @@
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="8">
         <v>20161212002136</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C4" s="19">
+        <v>0</v>
+      </c>
+      <c r="D4" s="19">
+        <v>0</v>
+      </c>
+      <c r="E4" s="19">
+        <v>0.13471</v>
+      </c>
+      <c r="F4" s="17">
+        <v>54612.025000000001</v>
+      </c>
+      <c r="G4" s="17">
+        <v>47807.654399999999</v>
+      </c>
+      <c r="H4" s="17">
+        <v>5</v>
+      </c>
+      <c r="I4" s="18">
+        <v>4</v>
+      </c>
+      <c r="J4" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="15" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="8">
         <v>20160406002131</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C5" s="19">
+        <v>0</v>
+      </c>
+      <c r="D5" s="19">
+        <v>0</v>
+      </c>
+      <c r="E5" s="19">
+        <v>0.29486000000000001</v>
+      </c>
+      <c r="F5" s="17">
+        <v>3138.93959</v>
+      </c>
+      <c r="G5" s="17">
+        <v>8853.0044600000001</v>
+      </c>
+      <c r="H5" s="17">
+        <v>4</v>
+      </c>
+      <c r="I5" s="18">
+        <v>0</v>
+      </c>
+      <c r="J5" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="8">
         <v>20160413000006</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C6" s="19">
+        <v>1</v>
+      </c>
+      <c r="D6" s="19">
+        <v>2</v>
+      </c>
+      <c r="E6" s="19">
+        <v>0.16302</v>
+      </c>
+      <c r="F6" s="17">
+        <v>19442.004000000001</v>
+      </c>
+      <c r="G6" s="17">
+        <v>19450.945400000001</v>
+      </c>
+      <c r="H6" s="17">
+        <v>1</v>
+      </c>
+      <c r="I6" s="18">
+        <v>5</v>
+      </c>
+      <c r="J6" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="8">
         <v>20161215001667</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C7" s="19">
+        <v>0</v>
+      </c>
+      <c r="D7" s="19">
+        <v>0</v>
+      </c>
+      <c r="E7" s="19">
+        <v>0</v>
+      </c>
+      <c r="F7" s="17">
+        <v>13116.0105</v>
+      </c>
+      <c r="G7" s="17">
+        <v>11612.630999999999</v>
+      </c>
+      <c r="H7" s="17">
+        <v>1</v>
+      </c>
+      <c r="I7" s="18">
+        <v>5</v>
+      </c>
+      <c r="J7" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="15" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="8">
         <v>20161222000978</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C8" s="19">
+        <v>1</v>
+      </c>
+      <c r="D8" s="19">
+        <v>22.3</v>
+      </c>
+      <c r="E8" s="19">
+        <v>0.40240999999999999</v>
+      </c>
+      <c r="F8" s="17">
+        <v>14015.291499999999</v>
+      </c>
+      <c r="G8" s="17">
+        <v>19432.891199999998</v>
+      </c>
+      <c r="H8" s="17">
+        <v>2</v>
+      </c>
+      <c r="I8" s="18">
+        <v>3</v>
+      </c>
+      <c r="J8" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="15" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="8">
         <v>20161110001074</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C9" s="19">
+        <v>0</v>
+      </c>
+      <c r="D9" s="19">
+        <v>0</v>
+      </c>
+      <c r="E9" s="19">
+        <v>0.33703</v>
+      </c>
+      <c r="F9" s="17">
+        <v>46152.307500000003</v>
+      </c>
+      <c r="G9" s="17">
+        <v>45907.345800000003</v>
+      </c>
+      <c r="H9" s="17">
+        <v>3</v>
+      </c>
+      <c r="I9" s="18">
+        <v>5</v>
+      </c>
+      <c r="J9" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="15" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="8">
         <v>20161208000139</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C10" s="19">
+        <v>0</v>
+      </c>
+      <c r="D10" s="19">
+        <v>0</v>
+      </c>
+      <c r="E10" s="19">
+        <v>0</v>
+      </c>
+      <c r="F10" s="17">
+        <v>8432.2699799999991</v>
+      </c>
+      <c r="G10" s="17">
+        <v>5448.9470199999996</v>
+      </c>
+      <c r="H10" s="17">
+        <v>5</v>
+      </c>
+      <c r="I10" s="18">
+        <v>2</v>
+      </c>
+      <c r="J10" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="15" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="8">
         <v>20161219000091</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C11" s="19">
+        <v>0</v>
+      </c>
+      <c r="D11" s="19">
+        <v>0</v>
+      </c>
+      <c r="E11" s="19">
+        <v>8.6440000000000003E-2</v>
+      </c>
+      <c r="F11" s="17">
+        <v>11004.5486</v>
+      </c>
+      <c r="G11" s="17">
+        <v>9012.45154</v>
+      </c>
+      <c r="H11" s="17">
+        <v>2</v>
+      </c>
+      <c r="I11" s="18">
+        <v>4</v>
+      </c>
+      <c r="J11" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="8">
         <v>20161031001987</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C12" s="19">
+        <v>1</v>
+      </c>
+      <c r="D12" s="19">
+        <v>19.87</v>
+      </c>
+      <c r="E12" s="19">
+        <v>0.12995000000000001</v>
+      </c>
+      <c r="F12" s="17">
+        <v>8734.7568100000008</v>
+      </c>
+      <c r="G12" s="17">
+        <v>9005.5845900000004</v>
+      </c>
+      <c r="H12" s="17">
+        <v>1</v>
+      </c>
+      <c r="I12" s="18">
+        <v>3</v>
+      </c>
+      <c r="J12" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="8">
         <v>20161012002008</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C13" s="19">
+        <v>0</v>
+      </c>
+      <c r="D13" s="19">
+        <v>0</v>
+      </c>
+      <c r="E13" s="19">
+        <v>0.18856400000000001</v>
+      </c>
+      <c r="F13" s="17">
+        <v>8087.3569699999998</v>
+      </c>
+      <c r="G13" s="17">
+        <v>15883.157999999999</v>
+      </c>
+      <c r="H13" s="17">
+        <v>4</v>
+      </c>
+      <c r="I13" s="18">
+        <v>3</v>
+      </c>
+      <c r="J13" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="15" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="8">
         <v>20160209000219</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C14" s="19">
+        <v>0</v>
+      </c>
+      <c r="D14" s="19">
+        <v>0</v>
+      </c>
+      <c r="E14" s="19">
+        <v>0</v>
+      </c>
+      <c r="F14" s="17">
+        <v>24536.459299999999</v>
+      </c>
+      <c r="G14" s="17">
+        <v>17556.094499999999</v>
+      </c>
+      <c r="H14" s="17">
+        <v>3</v>
+      </c>
+      <c r="I14" s="18">
+        <v>1</v>
+      </c>
+      <c r="J14" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="15" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="8">
         <v>20161031001142</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C15" s="19">
+        <v>0</v>
+      </c>
+      <c r="D15" s="19">
+        <v>0</v>
+      </c>
+      <c r="E15" s="19">
+        <v>0.31292999999999999</v>
+      </c>
+      <c r="F15" s="17">
+        <v>7386.6609399999998</v>
+      </c>
+      <c r="G15" s="17">
+        <v>7756.7271799999999</v>
+      </c>
+      <c r="H15" s="17">
+        <v>1</v>
+      </c>
+      <c r="I15" s="18">
+        <v>0</v>
+      </c>
+      <c r="J15" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="15" t="s">
         <v>24</v>
       </c>
       <c r="B16" s="8">
         <v>20161124000397</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C16" s="19">
+        <v>0</v>
+      </c>
+      <c r="D16" s="19">
+        <v>0</v>
+      </c>
+      <c r="E16" s="19">
+        <v>0</v>
+      </c>
+      <c r="F16" s="17">
+        <v>18632.1014</v>
+      </c>
+      <c r="G16" s="17">
+        <v>6829.7943599999999</v>
+      </c>
+      <c r="H16" s="17">
+        <v>2</v>
+      </c>
+      <c r="I16" s="18">
+        <v>1</v>
+      </c>
+      <c r="J16" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="15" t="s">
         <v>25</v>
       </c>
       <c r="B17" s="8">
         <v>20160513001799</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C17" s="19">
+        <v>0</v>
+      </c>
+      <c r="D17" s="19">
+        <v>0</v>
+      </c>
+      <c r="E17" s="19">
+        <v>7.3548000000000002E-2</v>
+      </c>
+      <c r="F17" s="17">
+        <v>5577.0999199999997</v>
+      </c>
+      <c r="G17" s="17">
+        <v>3864.1026099999999</v>
+      </c>
+      <c r="H17" s="17">
+        <v>3</v>
+      </c>
+      <c r="I17" s="18">
+        <v>2</v>
+      </c>
+      <c r="J17" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="15" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="8">
         <v>20161013001234</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C18" s="19">
+        <v>0</v>
+      </c>
+      <c r="D18" s="19">
+        <v>0</v>
+      </c>
+      <c r="E18" s="19">
+        <v>0</v>
+      </c>
+      <c r="F18" s="17">
+        <v>28068.719300000001</v>
+      </c>
+      <c r="G18" s="17">
+        <v>29678.5815</v>
+      </c>
+      <c r="H18" s="17">
+        <v>1</v>
+      </c>
+      <c r="I18" s="18">
+        <v>2</v>
+      </c>
+      <c r="J18" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B19" s="8">
         <v>20161130000004</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C19" s="19">
+        <v>1</v>
+      </c>
+      <c r="D19" s="19">
+        <v>18.2</v>
+      </c>
+      <c r="E19" s="19">
+        <v>0.29287000000000002</v>
+      </c>
+      <c r="F19" s="17">
+        <v>29298.235400000001</v>
+      </c>
+      <c r="G19" s="17">
+        <v>29427.704099999999</v>
+      </c>
+      <c r="H19" s="17">
+        <v>2</v>
+      </c>
+      <c r="I19" s="18">
+        <v>5</v>
+      </c>
+      <c r="J19" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="15" t="s">
         <v>28</v>
       </c>
       <c r="B20" s="8">
         <v>20160510002436</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C20" s="19">
+        <v>1</v>
+      </c>
+      <c r="D20" s="19">
+        <v>2</v>
+      </c>
+      <c r="E20" s="19">
+        <v>0.22858999999999999</v>
+      </c>
+      <c r="F20" s="17">
+        <v>6177.9840599999998</v>
+      </c>
+      <c r="G20" s="17">
+        <v>9268.4623800000008</v>
+      </c>
+      <c r="H20" s="17">
+        <v>5</v>
+      </c>
+      <c r="I20" s="18">
+        <v>3</v>
+      </c>
+      <c r="J20" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="15" t="s">
         <v>29</v>
       </c>
       <c r="B21" s="8">
         <v>20160602001707</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C21" s="19">
+        <v>0</v>
+      </c>
+      <c r="D21" s="19">
+        <v>0</v>
+      </c>
+      <c r="E21" s="19">
+        <v>0.21567</v>
+      </c>
+      <c r="F21" s="17">
+        <v>17394.883999999998</v>
+      </c>
+      <c r="G21" s="17">
+        <v>22819.118699999999</v>
+      </c>
+      <c r="H21" s="17">
+        <v>3</v>
+      </c>
+      <c r="I21" s="18">
+        <v>0</v>
+      </c>
+      <c r="J21" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="15" t="s">
         <v>30</v>
       </c>
       <c r="B22" s="8">
         <v>20160117000135</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C22" s="19">
+        <v>0</v>
+      </c>
+      <c r="D22" s="19">
+        <v>0</v>
+      </c>
+      <c r="E22" s="19">
+        <v>3.8754999999999998E-2</v>
+      </c>
+      <c r="F22" s="17">
+        <v>8038.6180999999997</v>
+      </c>
+      <c r="G22" s="17">
+        <v>6998.3531199999998</v>
+      </c>
+      <c r="H22" s="17">
+        <v>1</v>
+      </c>
+      <c r="I22" s="18">
+        <v>1</v>
+      </c>
+      <c r="J22" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="15" t="s">
         <v>31</v>
       </c>
       <c r="B23" s="8">
         <v>20160723000013</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C23" s="19">
+        <v>0</v>
+      </c>
+      <c r="D23" s="19">
+        <v>0</v>
+      </c>
+      <c r="E23" s="19">
+        <v>0.16419</v>
+      </c>
+      <c r="F23" s="17">
+        <v>17509.441900000002</v>
+      </c>
+      <c r="G23" s="17">
+        <v>11097.186900000001</v>
+      </c>
+      <c r="H23" s="17">
+        <v>2</v>
+      </c>
+      <c r="I23" s="18">
+        <v>2</v>
+      </c>
+      <c r="J23" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="15" t="s">
         <v>32</v>
       </c>
       <c r="B24" s="8">
         <v>20160317001244</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C24" s="19">
+        <v>0</v>
+      </c>
+      <c r="D24" s="19">
+        <v>0</v>
+      </c>
+      <c r="E24" s="19">
+        <v>5.8896999999999998E-2</v>
+      </c>
+      <c r="F24" s="17">
+        <v>10023.628199999999</v>
+      </c>
+      <c r="G24" s="17">
+        <v>14890.1914</v>
+      </c>
+      <c r="H24" s="17">
+        <v>5</v>
+      </c>
+      <c r="I24" s="18">
+        <v>3</v>
+      </c>
+      <c r="J24" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="15" t="s">
         <v>33</v>
       </c>
       <c r="B25" s="8">
         <v>20160803001239</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C25" s="19">
+        <v>0</v>
+      </c>
+      <c r="D25" s="19">
+        <v>0</v>
+      </c>
+      <c r="E25" s="19">
+        <v>0</v>
+      </c>
+      <c r="F25" s="17">
+        <v>19896.678899999999</v>
+      </c>
+      <c r="G25" s="17">
+        <v>12868.264499999999</v>
+      </c>
+      <c r="H25" s="17">
+        <v>3</v>
+      </c>
+      <c r="I25" s="18">
+        <v>2</v>
+      </c>
+      <c r="J25" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="15" t="s">
         <v>34</v>
       </c>
       <c r="B26" s="8">
         <v>20160321000142</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C26" s="19">
+        <v>0</v>
+      </c>
+      <c r="D26" s="19">
+        <v>0</v>
+      </c>
+      <c r="E26" s="19">
+        <v>0.11792999999999999</v>
+      </c>
+      <c r="F26" s="17">
+        <v>11907.239299999999</v>
+      </c>
+      <c r="G26" s="17">
+        <v>19276.825400000002</v>
+      </c>
+      <c r="H26" s="17">
+        <v>4</v>
+      </c>
+      <c r="I26" s="18">
+        <v>1</v>
+      </c>
+      <c r="J26" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="15" t="s">
         <v>35</v>
       </c>
       <c r="B27" s="8">
         <v>20170802000637</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C27" s="19">
+        <v>0</v>
+      </c>
+      <c r="D27" s="19">
+        <v>0</v>
+      </c>
+      <c r="E27" s="19">
+        <v>0</v>
+      </c>
+      <c r="F27" s="17">
+        <v>26086.4974</v>
+      </c>
+      <c r="G27" s="17">
+        <v>16795.084200000001</v>
+      </c>
+      <c r="H27" s="17">
+        <v>3</v>
+      </c>
+      <c r="I27" s="18">
+        <v>1</v>
+      </c>
+      <c r="J27" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="15" t="s">
         <v>36</v>
       </c>
       <c r="B28" s="8">
         <v>20171226002293</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C28" s="19">
+        <v>0</v>
+      </c>
+      <c r="D28" s="19">
+        <v>0</v>
+      </c>
+      <c r="E28" s="19">
+        <v>0.120049</v>
+      </c>
+      <c r="F28" s="17">
+        <v>6297.9853999999996</v>
+      </c>
+      <c r="G28" s="17">
+        <v>7936.93127</v>
+      </c>
+      <c r="H28" s="17">
+        <v>4</v>
+      </c>
+      <c r="I28" s="18">
+        <v>2</v>
+      </c>
+      <c r="J28" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="15" t="s">
         <v>37</v>
       </c>
       <c r="B29" s="8">
         <v>20171008000512</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C29" s="19">
+        <v>0</v>
+      </c>
+      <c r="D29" s="19">
+        <v>0</v>
+      </c>
+      <c r="E29" s="19">
+        <v>0.11149000000000001</v>
+      </c>
+      <c r="F29" s="17">
+        <v>9654.7088800000001</v>
+      </c>
+      <c r="G29" s="17">
+        <v>18249.347300000001</v>
+      </c>
+      <c r="H29" s="17">
+        <v>2</v>
+      </c>
+      <c r="I29" s="18">
+        <v>3</v>
+      </c>
+      <c r="J29" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B30" s="8">
         <v>20170206000071</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C30" s="19">
+        <v>0</v>
+      </c>
+      <c r="D30" s="19">
+        <v>0</v>
+      </c>
+      <c r="E30" s="19">
+        <v>0.67757000000000001</v>
+      </c>
+      <c r="F30" s="17">
+        <v>14968.7302</v>
+      </c>
+      <c r="G30" s="17">
+        <v>10071.818300000001</v>
+      </c>
+      <c r="H30" s="17">
+        <v>3</v>
+      </c>
+      <c r="I30" s="18">
+        <v>5</v>
+      </c>
+      <c r="J30" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="15" t="s">
         <v>39</v>
       </c>
       <c r="B31" s="8">
         <v>20171013002097</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C31" s="19">
+        <v>0</v>
+      </c>
+      <c r="D31" s="19">
+        <v>0</v>
+      </c>
+      <c r="E31" s="19">
+        <v>0.21435999999999999</v>
+      </c>
+      <c r="F31" s="17">
+        <v>13361.023999999999</v>
+      </c>
+      <c r="G31" s="17">
+        <v>18269.268599999999</v>
+      </c>
+      <c r="H31" s="17">
+        <v>3</v>
+      </c>
+      <c r="I31" s="18">
+        <v>4</v>
+      </c>
+      <c r="J31" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="15" t="s">
         <v>40</v>
       </c>
       <c r="B32" s="8">
         <v>20170607000010</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C32" s="19">
+        <v>0</v>
+      </c>
+      <c r="D32" s="19">
+        <v>0</v>
+      </c>
+      <c r="E32" s="19">
+        <v>0</v>
+      </c>
+      <c r="F32" s="17">
+        <v>16945.302100000001</v>
+      </c>
+      <c r="G32" s="17">
+        <v>28693.200199999999</v>
+      </c>
+      <c r="H32" s="17">
+        <v>2</v>
+      </c>
+      <c r="I32" s="18">
+        <v>4</v>
+      </c>
+      <c r="J32" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="15" t="s">
         <v>41</v>
       </c>
       <c r="B33" s="8">
         <v>20171025000480</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C33" s="19">
+        <v>0</v>
+      </c>
+      <c r="D33" s="19">
+        <v>0</v>
+      </c>
+      <c r="E33" s="19">
+        <v>1.1389E-2</v>
+      </c>
+      <c r="F33" s="17">
+        <v>38061.006800000003</v>
+      </c>
+      <c r="G33" s="17">
+        <v>40945.144699999997</v>
+      </c>
+      <c r="H33" s="17">
+        <v>1</v>
+      </c>
+      <c r="I33" s="18">
+        <v>5</v>
+      </c>
+      <c r="J33" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="15" t="s">
         <v>42</v>
       </c>
       <c r="B34" s="8">
         <v>20170307002130</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C34" s="19">
+        <v>0</v>
+      </c>
+      <c r="D34" s="19">
+        <v>0</v>
+      </c>
+      <c r="E34" s="19">
+        <v>0.14938000000000001</v>
+      </c>
+      <c r="F34" s="17">
+        <v>13675.029</v>
+      </c>
+      <c r="G34" s="17">
+        <v>13129.5237</v>
+      </c>
+      <c r="H34" s="17">
+        <v>5</v>
+      </c>
+      <c r="I34" s="18">
+        <v>4</v>
+      </c>
+      <c r="J34" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="15" t="s">
         <v>43</v>
       </c>
       <c r="B35" s="8">
         <v>20171009000137</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C35" s="19">
+        <v>0</v>
+      </c>
+      <c r="D35" s="19">
+        <v>0</v>
+      </c>
+      <c r="E35" s="19">
+        <v>0.11</v>
+      </c>
+      <c r="F35" s="17">
+        <v>23040.363600000001</v>
+      </c>
+      <c r="G35" s="17">
+        <v>26344.754199999999</v>
+      </c>
+      <c r="H35" s="17">
+        <v>5</v>
+      </c>
+      <c r="I35" s="18">
+        <v>0</v>
+      </c>
+      <c r="J35" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="15" t="s">
         <v>44</v>
       </c>
       <c r="B36" s="8">
         <v>20170115000362</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C36" s="19">
+        <v>1</v>
+      </c>
+      <c r="D36" s="19">
+        <v>6</v>
+      </c>
+      <c r="E36" s="19">
+        <v>0</v>
+      </c>
+      <c r="F36" s="17">
+        <v>16711.386699999999</v>
+      </c>
+      <c r="G36" s="17">
+        <v>10693.8827</v>
+      </c>
+      <c r="H36" s="17">
+        <v>2</v>
+      </c>
+      <c r="I36" s="18">
+        <v>5</v>
+      </c>
+      <c r="J36" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="15" t="s">
         <v>45</v>
       </c>
       <c r="B37" s="8">
         <v>20170119000729</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C37" s="19">
+        <v>1</v>
+      </c>
+      <c r="D37" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="E37" s="19">
+        <v>0.22459899999999999</v>
+      </c>
+      <c r="F37" s="17">
+        <v>27829.363099999999</v>
+      </c>
+      <c r="G37" s="17">
+        <v>34828.361799999999</v>
+      </c>
+      <c r="H37" s="17">
+        <v>2</v>
+      </c>
+      <c r="I37" s="18">
+        <v>4</v>
+      </c>
+      <c r="J37" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="15" t="s">
         <v>46</v>
       </c>
       <c r="B38" s="8">
         <v>20171014001244</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C38" s="19">
+        <v>0</v>
+      </c>
+      <c r="D38" s="19">
+        <v>0</v>
+      </c>
+      <c r="E38" s="19">
+        <v>0</v>
+      </c>
+      <c r="F38" s="17">
+        <v>15304.274100000001</v>
+      </c>
+      <c r="G38" s="17">
+        <v>6817.6174000000001</v>
+      </c>
+      <c r="H38" s="17">
+        <v>3</v>
+      </c>
+      <c r="I38" s="18">
+        <v>5</v>
+      </c>
+      <c r="J38" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="15" t="s">
         <v>47</v>
       </c>
       <c r="B39" s="8">
         <v>20170204001714</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C39" s="19">
+        <v>1</v>
+      </c>
+      <c r="D39" s="19">
+        <v>3</v>
+      </c>
+      <c r="E39" s="19">
+        <v>0.12622</v>
+      </c>
+      <c r="F39" s="17">
+        <v>13667.725</v>
+      </c>
+      <c r="G39" s="17">
+        <v>11385.524600000001</v>
+      </c>
+      <c r="H39" s="17">
+        <v>1</v>
+      </c>
+      <c r="I39" s="18">
+        <v>3</v>
+      </c>
+      <c r="J39" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="15" t="s">
         <v>48</v>
       </c>
       <c r="B40" s="8">
         <v>20170426000005</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C40" s="19">
+        <v>0</v>
+      </c>
+      <c r="D40" s="19">
+        <v>0</v>
+      </c>
+      <c r="E40" s="19">
+        <v>0</v>
+      </c>
+      <c r="F40" s="17">
+        <v>14669.468999999999</v>
+      </c>
+      <c r="G40" s="17">
+        <v>16063.9979</v>
+      </c>
+      <c r="H40" s="17">
+        <v>1</v>
+      </c>
+      <c r="I40" s="18">
+        <v>3</v>
+      </c>
+      <c r="J40" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="15" t="s">
         <v>49</v>
       </c>
       <c r="B41" s="8">
         <v>20170518002194</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C41" s="19">
+        <v>1</v>
+      </c>
+      <c r="D41" s="19">
+        <v>1</v>
+      </c>
+      <c r="E41" s="19">
+        <v>0</v>
+      </c>
+      <c r="F41" s="17">
+        <v>8272.2636199999997</v>
+      </c>
+      <c r="G41" s="17">
+        <v>15733.5206</v>
+      </c>
+      <c r="H41" s="17">
+        <v>5</v>
+      </c>
+      <c r="I41" s="18">
+        <v>2</v>
+      </c>
+      <c r="J41" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="15" t="s">
         <v>50</v>
       </c>
       <c r="B42" s="8">
         <v>20170425002487</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C42" s="19">
+        <v>0</v>
+      </c>
+      <c r="D42" s="19">
+        <v>0</v>
+      </c>
+      <c r="E42" s="19">
+        <v>0.13769000000000001</v>
+      </c>
+      <c r="F42" s="17">
+        <v>32876.420700000002</v>
+      </c>
+      <c r="G42" s="17">
+        <v>28662.0442</v>
+      </c>
+      <c r="H42" s="17">
+        <v>5</v>
+      </c>
+      <c r="I42" s="18">
+        <v>1</v>
+      </c>
+      <c r="J42" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="15" t="s">
         <v>51</v>
       </c>
       <c r="B43" s="8">
         <v>20170902000876</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C43" s="19">
+        <v>0</v>
+      </c>
+      <c r="D43" s="19">
+        <v>0</v>
+      </c>
+      <c r="E43" s="19">
+        <v>0.44129200000000002</v>
+      </c>
+      <c r="F43" s="17">
+        <v>19257.703799999999</v>
+      </c>
+      <c r="G43" s="17">
+        <v>13835.9858</v>
+      </c>
+      <c r="H43" s="17">
+        <v>5</v>
+      </c>
+      <c r="I43" s="18">
+        <v>1</v>
+      </c>
+      <c r="J43" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="15" t="s">
         <v>52</v>
       </c>
       <c r="B44" s="8">
         <v>20171002000282</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C44" s="19">
+        <v>0</v>
+      </c>
+      <c r="D44" s="19">
+        <v>0</v>
+      </c>
+      <c r="E44" s="19">
+        <v>0</v>
+      </c>
+      <c r="F44" s="17">
+        <v>18004.764800000001</v>
+      </c>
+      <c r="G44" s="17">
+        <v>16414.202300000001</v>
+      </c>
+      <c r="H44" s="17">
+        <v>1</v>
+      </c>
+      <c r="I44" s="18">
+        <v>3</v>
+      </c>
+      <c r="J44" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="15" t="s">
         <v>53</v>
       </c>
       <c r="B45" s="8">
         <v>20170420000636</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C45" s="19">
+        <v>0</v>
+      </c>
+      <c r="D45" s="19">
+        <v>0</v>
+      </c>
+      <c r="E45" s="19">
+        <v>0</v>
+      </c>
+      <c r="F45" s="17">
+        <v>16454.805400000001</v>
+      </c>
+      <c r="G45" s="17">
+        <v>14806.6005</v>
+      </c>
+      <c r="H45" s="17">
+        <v>1</v>
+      </c>
+      <c r="I45" s="18">
+        <v>0</v>
+      </c>
+      <c r="J45" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="15" t="s">
         <v>54</v>
       </c>
       <c r="B46" s="8">
         <v>20170325000428</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C46" s="19">
+        <v>0</v>
+      </c>
+      <c r="D46" s="19">
+        <v>0</v>
+      </c>
+      <c r="E46" s="19">
+        <v>0</v>
+      </c>
+      <c r="F46" s="17">
+        <v>4875.4661100000003</v>
+      </c>
+      <c r="G46" s="17">
+        <v>4785.0033700000004</v>
+      </c>
+      <c r="H46" s="17">
+        <v>3</v>
+      </c>
+      <c r="I46" s="18">
+        <v>5</v>
+      </c>
+      <c r="J46" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="15" t="s">
         <v>55</v>
       </c>
       <c r="B47" s="8">
         <v>20170528000084</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C47" s="19">
+        <v>0</v>
+      </c>
+      <c r="D47" s="19">
+        <v>0</v>
+      </c>
+      <c r="E47" s="19">
+        <v>7.6119000000000006E-2</v>
+      </c>
+      <c r="F47" s="17">
+        <v>20819.610799999999</v>
+      </c>
+      <c r="G47" s="17">
+        <v>22480.968700000001</v>
+      </c>
+      <c r="H47" s="17">
+        <v>1</v>
+      </c>
+      <c r="I47" s="18">
+        <v>3</v>
+      </c>
+      <c r="J47" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="15" t="s">
         <v>56</v>
       </c>
       <c r="B48" s="8">
         <v>20170324001892</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C48" s="19">
+        <v>0</v>
+      </c>
+      <c r="D48" s="19">
+        <v>0</v>
+      </c>
+      <c r="E48" s="19">
+        <v>0</v>
+      </c>
+      <c r="F48" s="17">
+        <v>8080.9039199999997</v>
+      </c>
+      <c r="G48" s="17">
+        <v>15357.022999999999</v>
+      </c>
+      <c r="H48" s="17">
+        <v>5</v>
+      </c>
+      <c r="I48" s="18">
+        <v>1</v>
+      </c>
+      <c r="J48" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="15" t="s">
         <v>57</v>
       </c>
       <c r="B49" s="8">
         <v>20170511000016</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C49" s="19">
+        <v>0</v>
+      </c>
+      <c r="D49" s="19">
+        <v>0</v>
+      </c>
+      <c r="E49" s="19">
+        <v>0.17038</v>
+      </c>
+      <c r="F49" s="17">
+        <v>12786.507299999999</v>
+      </c>
+      <c r="G49" s="17">
+        <v>15571.54</v>
+      </c>
+      <c r="H49" s="17">
+        <v>1</v>
+      </c>
+      <c r="I49" s="18">
+        <v>2</v>
+      </c>
+      <c r="J49" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="15" t="s">
         <v>58</v>
       </c>
       <c r="B50" s="8">
         <v>20171019001652</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C50" s="19">
+        <v>0</v>
+      </c>
+      <c r="D50" s="19">
+        <v>0</v>
+      </c>
+      <c r="E50" s="19">
+        <v>9.0742000000000003E-2</v>
+      </c>
+      <c r="F50" s="17">
+        <v>11433.9568</v>
+      </c>
+      <c r="G50" s="17">
+        <v>15024.956899999999</v>
+      </c>
+      <c r="H50" s="17">
+        <v>5</v>
+      </c>
+      <c r="I50" s="18">
+        <v>1</v>
+      </c>
+      <c r="J50" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="15" t="s">
         <v>59</v>
       </c>
       <c r="B51" s="8">
         <v>20170402000556</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C51" s="19">
+        <v>1</v>
+      </c>
+      <c r="D51" s="19">
+        <v>1</v>
+      </c>
+      <c r="E51" s="19">
+        <v>0.36460500000000001</v>
+      </c>
+      <c r="F51" s="17">
+        <v>19230.553199999998</v>
+      </c>
+      <c r="G51" s="17">
+        <v>16936.036400000001</v>
+      </c>
+      <c r="H51" s="17">
+        <v>4</v>
+      </c>
+      <c r="I51" s="18">
+        <v>3</v>
+      </c>
+      <c r="J51" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="15" t="s">
         <v>60</v>
       </c>
       <c r="B52" s="8">
         <v>20171005000770</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C52" s="19">
+        <v>0</v>
+      </c>
+      <c r="D52" s="19">
+        <v>0</v>
+      </c>
+      <c r="E52" s="19">
+        <v>5.0931999999999998E-2</v>
+      </c>
+      <c r="F52" s="17">
+        <v>25071.705600000001</v>
+      </c>
+      <c r="G52" s="17">
+        <v>29714.345700000002</v>
+      </c>
+      <c r="H52" s="17">
+        <v>5</v>
+      </c>
+      <c r="I52" s="18">
+        <v>1</v>
+      </c>
+      <c r="J52" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="15" t="s">
         <v>61</v>
       </c>
       <c r="B53" s="8">
         <v>20171105000372</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C53" s="19">
+        <v>0</v>
+      </c>
+      <c r="D53" s="19">
+        <v>0</v>
+      </c>
+      <c r="E53" s="19">
+        <v>0</v>
+      </c>
+      <c r="F53" s="17">
+        <v>14281.7284</v>
+      </c>
+      <c r="G53" s="17">
+        <v>14158.781499999999</v>
+      </c>
+      <c r="H53" s="17">
+        <v>2</v>
+      </c>
+      <c r="I53" s="18">
+        <v>1</v>
+      </c>
+      <c r="J53" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="15" t="s">
         <v>62</v>
       </c>
       <c r="B54" s="8">
         <v>20170422000935</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C54" s="19">
+        <v>0</v>
+      </c>
+      <c r="D54" s="19">
+        <v>0</v>
+      </c>
+      <c r="E54" s="19">
+        <v>0</v>
+      </c>
+      <c r="F54" s="17">
+        <v>13293.6333</v>
+      </c>
+      <c r="G54" s="17">
+        <v>6771.8924299999999</v>
+      </c>
+      <c r="H54" s="17">
+        <v>3</v>
+      </c>
+      <c r="I54" s="18">
+        <v>3</v>
+      </c>
+      <c r="J54" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="15" t="s">
         <v>63</v>
       </c>
       <c r="B55" s="8">
         <v>20170608001310</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C55" s="19">
+        <v>1</v>
+      </c>
+      <c r="D55" s="19">
+        <v>4</v>
+      </c>
+      <c r="E55" s="19">
+        <v>7.0629999999999998E-2</v>
+      </c>
+      <c r="F55" s="17">
+        <v>19052.174500000001</v>
+      </c>
+      <c r="G55" s="17">
+        <v>24132.392100000001</v>
+      </c>
+      <c r="H55" s="17">
+        <v>3</v>
+      </c>
+      <c r="I55" s="18">
+        <v>3</v>
+      </c>
+      <c r="J55" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="15" t="s">
         <v>64</v>
       </c>
       <c r="B56" s="8">
         <v>20170511001392</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C56" s="19">
+        <v>0</v>
+      </c>
+      <c r="D56" s="19">
+        <v>0</v>
+      </c>
+      <c r="E56" s="19">
+        <v>0.11101999999999999</v>
+      </c>
+      <c r="F56" s="17">
+        <v>7068.9821000000002</v>
+      </c>
+      <c r="G56" s="17">
+        <v>14866.4444</v>
+      </c>
+      <c r="H56" s="17">
+        <v>2</v>
+      </c>
+      <c r="I56" s="18">
+        <v>2</v>
+      </c>
+      <c r="J56" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="15" t="s">
         <v>65</v>
       </c>
       <c r="B57" s="8">
         <v>20170612002216</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C57" s="19">
+        <v>0</v>
+      </c>
+      <c r="D57" s="19">
+        <v>0</v>
+      </c>
+      <c r="E57" s="19">
+        <v>0</v>
+      </c>
+      <c r="F57" s="17">
+        <v>9334.2406200000005</v>
+      </c>
+      <c r="G57" s="17">
+        <v>15713.7399</v>
+      </c>
+      <c r="H57" s="17">
+        <v>5</v>
+      </c>
+      <c r="I57" s="18">
+        <v>3</v>
+      </c>
+      <c r="J57" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="15" t="s">
         <v>66</v>
       </c>
       <c r="B58" s="8">
         <v>20170316001977</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C58" s="19">
+        <v>0</v>
+      </c>
+      <c r="D58" s="19">
+        <v>0</v>
+      </c>
+      <c r="E58" s="19">
+        <v>0</v>
+      </c>
+      <c r="F58" s="17">
+        <v>12036.992899999999</v>
+      </c>
+      <c r="G58" s="17">
+        <v>14851.852999999999</v>
+      </c>
+      <c r="H58" s="17">
+        <v>3</v>
+      </c>
+      <c r="I58" s="18">
+        <v>4</v>
+      </c>
+      <c r="J58" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="15" t="s">
         <v>67</v>
       </c>
       <c r="B59" s="8">
         <v>20170120000152</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C59" s="19">
+        <v>0</v>
+      </c>
+      <c r="D59" s="19">
+        <v>0</v>
+      </c>
+      <c r="E59" s="19">
+        <v>0.18689</v>
+      </c>
+      <c r="F59" s="17">
+        <v>14824.2178</v>
+      </c>
+      <c r="G59" s="17">
+        <v>13067.7498</v>
+      </c>
+      <c r="H59" s="17">
+        <v>1</v>
+      </c>
+      <c r="I59" s="18">
+        <v>0</v>
+      </c>
+      <c r="J59" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="15" t="s">
         <v>68</v>
       </c>
       <c r="B60" s="8">
         <v>20170825001844</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C60" s="19">
+        <v>1</v>
+      </c>
+      <c r="D60" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="E60" s="19">
+        <v>0</v>
+      </c>
+      <c r="F60" s="17">
+        <v>18544.8642</v>
+      </c>
+      <c r="G60" s="17">
+        <v>11856.5923</v>
+      </c>
+      <c r="H60" s="17">
+        <v>3</v>
+      </c>
+      <c r="I60" s="18">
+        <v>3</v>
+      </c>
+      <c r="J60" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="15" t="s">
         <v>69</v>
       </c>
       <c r="B61" s="8">
         <v>20170125000984</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C61" s="19">
+        <v>0</v>
+      </c>
+      <c r="D61" s="19">
+        <v>0</v>
+      </c>
+      <c r="E61" s="19">
+        <v>0.33982000000000001</v>
+      </c>
+      <c r="F61" s="17">
+        <v>7012.9685399999998</v>
+      </c>
+      <c r="G61" s="17">
+        <v>7733.9710699999996</v>
+      </c>
+      <c r="H61" s="17">
+        <v>2</v>
+      </c>
+      <c r="I61" s="18">
+        <v>5</v>
+      </c>
+      <c r="J61" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="15" t="s">
         <v>70</v>
       </c>
       <c r="B62" s="8">
         <v>20170912002314</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C62" s="19">
+        <v>0</v>
+      </c>
+      <c r="D62" s="19">
+        <v>0</v>
+      </c>
+      <c r="E62" s="19">
+        <v>0.10108</v>
+      </c>
+      <c r="F62" s="17">
+        <v>25020.362700000001</v>
+      </c>
+      <c r="G62" s="17">
+        <v>18848.204699999998</v>
+      </c>
+      <c r="H62" s="17">
+        <v>3</v>
+      </c>
+      <c r="I62" s="18">
+        <v>1</v>
+      </c>
+      <c r="J62" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="15" t="s">
         <v>71</v>
       </c>
       <c r="B63" s="8">
         <v>20180109000613</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C63" s="19">
+        <v>1</v>
+      </c>
+      <c r="D63" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="E63" s="19">
+        <v>0.29987999999999998</v>
+      </c>
+      <c r="F63" s="17">
+        <v>12856.6248</v>
+      </c>
+      <c r="G63" s="17">
+        <v>13097.221299999999</v>
+      </c>
+      <c r="H63" s="17">
+        <v>5</v>
+      </c>
+      <c r="I63" s="18">
+        <v>4</v>
+      </c>
+      <c r="J63" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="15" t="s">
         <v>72</v>
       </c>
       <c r="B64" s="8">
         <v>20180226000725</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C64" s="19">
+        <v>1</v>
+      </c>
+      <c r="D64" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="E64" s="19">
+        <v>0.57308999999999999</v>
+      </c>
+      <c r="F64" s="17">
+        <v>35109.832300000002</v>
+      </c>
+      <c r="G64" s="17">
+        <v>31033.865300000001</v>
+      </c>
+      <c r="H64" s="17">
+        <v>5</v>
+      </c>
+      <c r="I64" s="18">
+        <v>4</v>
+      </c>
+      <c r="J64" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="15" t="s">
         <v>73</v>
       </c>
       <c r="B65" s="8">
         <v>20181221002264</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C65" s="19">
+        <v>0</v>
+      </c>
+      <c r="D65" s="19">
+        <v>0</v>
+      </c>
+      <c r="E65" s="19">
+        <v>7.3719999999999994E-2</v>
+      </c>
+      <c r="F65" s="17">
+        <v>10276.423199999999</v>
+      </c>
+      <c r="G65" s="17">
+        <v>13581.009599999999</v>
+      </c>
+      <c r="H65" s="17">
+        <v>5</v>
+      </c>
+      <c r="I65" s="18">
+        <v>2</v>
+      </c>
+      <c r="J65" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="15" t="s">
         <v>74</v>
       </c>
       <c r="B66" s="8">
         <v>20181020001229</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C66" s="19">
+        <v>1</v>
+      </c>
+      <c r="D66" s="19">
+        <v>10</v>
+      </c>
+      <c r="E66" s="19">
+        <v>0</v>
+      </c>
+      <c r="F66" s="17">
+        <v>29377.432799999999</v>
+      </c>
+      <c r="G66" s="17">
+        <v>22201.5641</v>
+      </c>
+      <c r="H66" s="17">
+        <v>4</v>
+      </c>
+      <c r="I66" s="18">
+        <v>2</v>
+      </c>
+      <c r="J66" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="15" t="s">
         <v>75</v>
       </c>
       <c r="B67" s="8">
         <v>20180801000501</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C67" s="19">
+        <v>0</v>
+      </c>
+      <c r="D67" s="19">
+        <v>0</v>
+      </c>
+      <c r="E67" s="19">
+        <v>0</v>
+      </c>
+      <c r="F67" s="17">
+        <v>21969.187900000001</v>
+      </c>
+      <c r="G67" s="17">
+        <v>14203.835300000001</v>
+      </c>
+      <c r="H67" s="17">
+        <v>3</v>
+      </c>
+      <c r="I67" s="18">
+        <v>3</v>
+      </c>
+      <c r="J67" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="15" t="s">
         <v>76</v>
       </c>
       <c r="B68" s="8">
         <v>20180131001727</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C68" s="19">
+        <v>0</v>
+      </c>
+      <c r="D68" s="19">
+        <v>0</v>
+      </c>
+      <c r="E68" s="19">
+        <v>7.6749999999999999E-2</v>
+      </c>
+      <c r="F68" s="17">
+        <v>18049.554400000001</v>
+      </c>
+      <c r="G68" s="17">
+        <v>25676.079699999998</v>
+      </c>
+      <c r="H68" s="17">
+        <v>3</v>
+      </c>
+      <c r="I68" s="18">
+        <v>3</v>
+      </c>
+      <c r="J68" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="15" t="s">
         <v>77</v>
       </c>
       <c r="B69" s="8">
         <v>20181208000909</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C69" s="19">
+        <v>0</v>
+      </c>
+      <c r="D69" s="19">
+        <v>0</v>
+      </c>
+      <c r="E69" s="19">
+        <v>0.10155</v>
+      </c>
+      <c r="F69" s="17">
+        <v>11684.832200000001</v>
+      </c>
+      <c r="G69" s="17">
+        <v>11023.105</v>
+      </c>
+      <c r="H69" s="17">
+        <v>3</v>
+      </c>
+      <c r="I69" s="18">
+        <v>6</v>
+      </c>
+      <c r="J69" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="15" t="s">
         <v>78</v>
       </c>
       <c r="B70" s="8">
         <v>20181207001317</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C70" s="19">
+        <v>0</v>
+      </c>
+      <c r="D70" s="19">
+        <v>0</v>
+      </c>
+      <c r="E70" s="19">
+        <v>0</v>
+      </c>
+      <c r="F70" s="17">
+        <v>17477.024600000001</v>
+      </c>
+      <c r="G70" s="17">
+        <v>16722.558799999999</v>
+      </c>
+      <c r="H70" s="17">
+        <v>1</v>
+      </c>
+      <c r="I70" s="18">
+        <v>2</v>
+      </c>
+      <c r="J70" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="15" t="s">
         <v>79</v>
       </c>
       <c r="B71" s="8">
         <v>20180412001426</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C71" s="19">
+        <v>0</v>
+      </c>
+      <c r="D71" s="19">
+        <v>0</v>
+      </c>
+      <c r="E71" s="19">
+        <v>0</v>
+      </c>
+      <c r="F71" s="17">
+        <v>7727.9352600000002</v>
+      </c>
+      <c r="G71" s="17">
+        <v>3161.0247399999998</v>
+      </c>
+      <c r="H71" s="17">
+        <v>5</v>
+      </c>
+      <c r="I71" s="18">
+        <v>2</v>
+      </c>
+      <c r="J71" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="15" t="s">
         <v>80</v>
       </c>
       <c r="B72" s="8">
         <v>20180619001505</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C72" s="19">
+        <v>0</v>
+      </c>
+      <c r="D72" s="19">
+        <v>0</v>
+      </c>
+      <c r="E72" s="19">
+        <v>0.16994999999999999</v>
+      </c>
+      <c r="F72" s="17">
+        <v>18125.545600000001</v>
+      </c>
+      <c r="G72" s="17">
+        <v>13450.3514</v>
+      </c>
+      <c r="H72" s="17">
+        <v>3</v>
+      </c>
+      <c r="I72" s="18">
+        <v>6</v>
+      </c>
+      <c r="J72" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="15" t="s">
         <v>81</v>
       </c>
       <c r="B73" s="8">
         <v>20180427000292</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C73" s="19">
+        <v>0</v>
+      </c>
+      <c r="D73" s="19">
+        <v>0</v>
+      </c>
+      <c r="E73" s="19">
+        <v>0</v>
+      </c>
+      <c r="F73" s="17">
+        <v>15784.9661</v>
+      </c>
+      <c r="G73" s="17">
+        <v>9219.6466700000001</v>
+      </c>
+      <c r="H73" s="17">
+        <v>3</v>
+      </c>
+      <c r="I73" s="18">
+        <v>3</v>
+      </c>
+      <c r="J73" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="15" t="s">
         <v>82</v>
       </c>
       <c r="B74" s="8">
         <v>20181103001264</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C74" s="19">
+        <v>0</v>
+      </c>
+      <c r="D74" s="19">
+        <v>0</v>
+      </c>
+      <c r="E74" s="19">
+        <v>6.4820000000000003E-2</v>
+      </c>
+      <c r="F74" s="17">
+        <v>18231.989000000001</v>
+      </c>
+      <c r="G74" s="17">
+        <v>21102.734199999999</v>
+      </c>
+      <c r="H74" s="17">
+        <v>3</v>
+      </c>
+      <c r="I74" s="18">
+        <v>1</v>
+      </c>
+      <c r="J74" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="15" t="s">
         <v>83</v>
       </c>
       <c r="B75" s="8">
         <v>20181007000826</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C75" s="19">
+        <v>0</v>
+      </c>
+      <c r="D75" s="19">
+        <v>0</v>
+      </c>
+      <c r="E75" s="19">
+        <v>2.1329000000000001E-2</v>
+      </c>
+      <c r="F75" s="17">
+        <v>10310.873</v>
+      </c>
+      <c r="G75" s="17">
+        <v>5156.4080700000004</v>
+      </c>
+      <c r="H75" s="17">
+        <v>3</v>
+      </c>
+      <c r="I75" s="18">
+        <v>5</v>
+      </c>
+      <c r="J75" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="15" t="s">
         <v>84</v>
       </c>
       <c r="B76" s="8">
         <v>20180911001645</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C76" s="19">
+        <v>0</v>
+      </c>
+      <c r="D76" s="19">
+        <v>0</v>
+      </c>
+      <c r="E76" s="19">
+        <v>1.5047E-2</v>
+      </c>
+      <c r="F76" s="17">
+        <v>18826.715499999998</v>
+      </c>
+      <c r="G76" s="17">
+        <v>18302.3982</v>
+      </c>
+      <c r="H76" s="17">
+        <v>2</v>
+      </c>
+      <c r="I76" s="18">
+        <v>1</v>
+      </c>
+      <c r="J76" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="15" t="s">
         <v>85</v>
       </c>
       <c r="B77" s="8">
         <v>20180719000020</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C77" s="19">
+        <v>0</v>
+      </c>
+      <c r="D77" s="19">
+        <v>0</v>
+      </c>
+      <c r="E77" s="19">
+        <v>0.18881999999999999</v>
+      </c>
+      <c r="F77" s="17">
+        <v>35494.894999999997</v>
+      </c>
+      <c r="G77" s="17">
+        <v>30258.270199999999</v>
+      </c>
+      <c r="H77" s="17">
+        <v>5</v>
+      </c>
+      <c r="I77" s="18">
+        <v>0</v>
+      </c>
+      <c r="J77" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="15" t="s">
         <v>86</v>
       </c>
       <c r="B78" s="8">
         <v>20180428001767</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C78" s="19">
+        <v>0</v>
+      </c>
+      <c r="D78" s="19">
+        <v>0</v>
+      </c>
+      <c r="E78" s="19">
+        <v>0</v>
+      </c>
+      <c r="F78" s="17">
+        <v>5567.9624000000003</v>
+      </c>
+      <c r="G78" s="17">
+        <v>8488.1779900000001</v>
+      </c>
+      <c r="H78" s="17">
+        <v>5</v>
+      </c>
+      <c r="I78" s="18">
+        <v>3</v>
+      </c>
+      <c r="J78" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="15" t="s">
         <v>87</v>
       </c>
       <c r="B79" s="8">
         <v>20180619002401</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C79" s="19">
+        <v>1</v>
+      </c>
+      <c r="D79" s="19">
+        <v>1.5</v>
+      </c>
+      <c r="E79" s="19">
+        <v>0.15079000000000001</v>
+      </c>
+      <c r="F79" s="17">
+        <v>17470.845000000001</v>
+      </c>
+      <c r="G79" s="17">
+        <v>15298.5383</v>
+      </c>
+      <c r="H79" s="17">
+        <v>1</v>
+      </c>
+      <c r="I79" s="18">
+        <v>5</v>
+      </c>
+      <c r="J79" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="15" t="s">
         <v>88</v>
       </c>
       <c r="B80" s="8">
         <v>20180503002304</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C80" s="19">
+        <v>1</v>
+      </c>
+      <c r="D80" s="19">
+        <v>2</v>
+      </c>
+      <c r="E80" s="19">
+        <v>0.52124000000000004</v>
+      </c>
+      <c r="F80" s="17">
+        <v>8575.7334599999995</v>
+      </c>
+      <c r="G80" s="17">
+        <v>14311.5975</v>
+      </c>
+      <c r="H80" s="17">
+        <v>3</v>
+      </c>
+      <c r="I80" s="18">
+        <v>6</v>
+      </c>
+      <c r="J80" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="15" t="s">
         <v>89</v>
       </c>
       <c r="B81" s="8">
         <v>20180929000040</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C81" s="19">
+        <v>0</v>
+      </c>
+      <c r="D81" s="19">
+        <v>0</v>
+      </c>
+      <c r="E81" s="19">
+        <v>0</v>
+      </c>
+      <c r="F81" s="17">
+        <v>24236.8269</v>
+      </c>
+      <c r="G81" s="17">
+        <v>27915.631000000001</v>
+      </c>
+      <c r="H81" s="17">
+        <v>5</v>
+      </c>
+      <c r="I81" s="18">
+        <v>1</v>
+      </c>
+      <c r="J81" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="15" t="s">
         <v>90</v>
       </c>
       <c r="B82" s="8">
         <v>20180929000037</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C82" s="19">
+        <v>0</v>
+      </c>
+      <c r="D82" s="19">
+        <v>0</v>
+      </c>
+      <c r="E82" s="19">
+        <v>0.36843999999999999</v>
+      </c>
+      <c r="F82" s="17">
+        <v>19162.274099999999</v>
+      </c>
+      <c r="G82" s="17">
+        <v>5928.63897</v>
+      </c>
+      <c r="H82" s="17">
+        <v>2</v>
+      </c>
+      <c r="I82" s="18">
+        <v>1</v>
+      </c>
+      <c r="J82" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="15" t="s">
         <v>91</v>
       </c>
       <c r="B83" s="8">
         <v>20180130001917</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C83" s="19">
+        <v>0</v>
+      </c>
+      <c r="D83" s="19">
+        <v>0</v>
+      </c>
+      <c r="E83" s="19">
+        <v>0</v>
+      </c>
+      <c r="F83" s="17">
+        <v>16505.41</v>
+      </c>
+      <c r="G83" s="17">
+        <v>14811.896000000001</v>
+      </c>
+      <c r="H83" s="17">
+        <v>1</v>
+      </c>
+      <c r="I83" s="18">
+        <v>1</v>
+      </c>
+      <c r="J83" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="15" t="s">
         <v>92</v>
       </c>
       <c r="B84" s="8">
         <v>20180120000249</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C84" s="19">
+        <v>0</v>
+      </c>
+      <c r="D84" s="19">
+        <v>0</v>
+      </c>
+      <c r="E84" s="19">
+        <v>0</v>
+      </c>
+      <c r="F84" s="17">
+        <v>29962.039199999999</v>
+      </c>
+      <c r="G84" s="17">
+        <v>24381.162199999999</v>
+      </c>
+      <c r="H84" s="17">
+        <v>3</v>
+      </c>
+      <c r="I84" s="18">
+        <v>3</v>
+      </c>
+      <c r="J84" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="15" t="s">
         <v>93</v>
       </c>
       <c r="B85" s="8">
         <v>20180221000793</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C85" s="19">
+        <v>0</v>
+      </c>
+      <c r="D85" s="19">
+        <v>0</v>
+      </c>
+      <c r="E85" s="19">
+        <v>0</v>
+      </c>
+      <c r="F85" s="17">
+        <v>7621.8965900000003</v>
+      </c>
+      <c r="G85" s="17">
+        <v>7352.0780500000001</v>
+      </c>
+      <c r="H85" s="17">
+        <v>4</v>
+      </c>
+      <c r="I85" s="18">
+        <v>2</v>
+      </c>
+      <c r="J85" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="15" t="s">
         <v>94</v>
       </c>
       <c r="B86" s="8">
         <v>20181004000706</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C86" s="19">
+        <v>0</v>
+      </c>
+      <c r="D86" s="19">
+        <v>0</v>
+      </c>
+      <c r="E86" s="19">
+        <v>0.13503000000000001</v>
+      </c>
+      <c r="F86" s="17">
+        <v>12058.124100000001</v>
+      </c>
+      <c r="G86" s="17">
+        <v>9228.8730599999999</v>
+      </c>
+      <c r="H86" s="17">
+        <v>5</v>
+      </c>
+      <c r="I86" s="18">
+        <v>5</v>
+      </c>
+      <c r="J86" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="15" t="s">
         <v>95</v>
       </c>
       <c r="B87" s="8">
         <v>20180716000006</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C87" s="19">
+        <v>0</v>
+      </c>
+      <c r="D87" s="19">
+        <v>0</v>
+      </c>
+      <c r="E87" s="19">
+        <v>0.14077999999999999</v>
+      </c>
+      <c r="F87" s="17">
+        <v>7764.2131600000002</v>
+      </c>
+      <c r="G87" s="17">
+        <v>7920.5119400000003</v>
+      </c>
+      <c r="H87" s="17">
+        <v>5</v>
+      </c>
+      <c r="I87" s="18">
+        <v>1</v>
+      </c>
+      <c r="J87" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="15" t="s">
         <v>96</v>
       </c>
       <c r="B88" s="8">
         <v>20181127002511</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C88" s="19">
+        <v>0</v>
+      </c>
+      <c r="D88" s="19">
+        <v>0</v>
+      </c>
+      <c r="E88" s="19">
+        <v>0</v>
+      </c>
+      <c r="F88" s="17">
+        <v>26817.254400000002</v>
+      </c>
+      <c r="G88" s="17">
+        <v>28832.300599999999</v>
+      </c>
+      <c r="H88" s="17">
+        <v>5</v>
+      </c>
+      <c r="I88" s="18">
+        <v>2</v>
+      </c>
+      <c r="J88" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="15" t="s">
         <v>97</v>
       </c>
       <c r="B89" s="8">
         <v>20180108000002</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C89" s="19">
+        <v>0</v>
+      </c>
+      <c r="D89" s="19">
+        <v>0</v>
+      </c>
+      <c r="E89" s="19">
+        <v>0.23963000000000001</v>
+      </c>
+      <c r="F89" s="17">
+        <v>25780.474099999999</v>
+      </c>
+      <c r="G89" s="17">
+        <v>31648.602500000001</v>
+      </c>
+      <c r="H89" s="17">
+        <v>5</v>
+      </c>
+      <c r="I89" s="18">
+        <v>2</v>
+      </c>
+      <c r="J89" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="15" t="s">
         <v>98</v>
       </c>
       <c r="B90" s="8">
         <v>20180216000198</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C90" s="19">
+        <v>0</v>
+      </c>
+      <c r="D90" s="19">
+        <v>0</v>
+      </c>
+      <c r="E90" s="19">
+        <v>0.12402000000000001</v>
+      </c>
+      <c r="F90" s="17">
+        <v>21956.177500000002</v>
+      </c>
+      <c r="G90" s="17">
+        <v>28070.703600000001</v>
+      </c>
+      <c r="H90" s="17">
+        <v>5</v>
+      </c>
+      <c r="I90" s="18">
+        <v>1</v>
+      </c>
+      <c r="J90" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="15" t="s">
         <v>99</v>
       </c>
       <c r="B91" s="8">
         <v>20180521000314</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C91" s="19">
+        <v>0</v>
+      </c>
+      <c r="D91" s="19">
+        <v>0</v>
+      </c>
+      <c r="E91" s="19">
+        <v>0.1769</v>
+      </c>
+      <c r="F91" s="17">
+        <v>4265.5152200000002</v>
+      </c>
+      <c r="G91" s="17">
+        <v>9282.4929400000001</v>
+      </c>
+      <c r="H91" s="17">
+        <v>2</v>
+      </c>
+      <c r="I91" s="18">
+        <v>2</v>
+      </c>
+      <c r="J91" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="15" t="s">
         <v>100</v>
       </c>
       <c r="B92" s="8">
         <v>20180314002318</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C92" s="19">
+        <v>0</v>
+      </c>
+      <c r="D92" s="19">
+        <v>0</v>
+      </c>
+      <c r="E92" s="19">
+        <v>6.3114000000000003E-2</v>
+      </c>
+      <c r="F92" s="17">
+        <v>14771.812400000001</v>
+      </c>
+      <c r="G92" s="17">
+        <v>17246.6368</v>
+      </c>
+      <c r="H92" s="17">
+        <v>5</v>
+      </c>
+      <c r="I92" s="18">
+        <v>1</v>
+      </c>
+      <c r="J92" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="15" t="s">
         <v>101</v>
       </c>
       <c r="B93" s="8">
         <v>20180910002366</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C93" s="19">
+        <v>0</v>
+      </c>
+      <c r="D93" s="19">
+        <v>0</v>
+      </c>
+      <c r="E93" s="19">
+        <v>0</v>
+      </c>
+      <c r="F93" s="17">
+        <v>27696.282899999998</v>
+      </c>
+      <c r="G93" s="17">
+        <v>30666.1149</v>
+      </c>
+      <c r="H93" s="17">
+        <v>5</v>
+      </c>
+      <c r="I93" s="18">
+        <v>5</v>
+      </c>
+      <c r="J93" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="15" t="s">
         <v>102</v>
       </c>
       <c r="B94" s="8">
         <v>20181019001130</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C94" s="19">
+        <v>0</v>
+      </c>
+      <c r="D94" s="19">
+        <v>0</v>
+      </c>
+      <c r="E94" s="19">
+        <v>2.5409999999999999E-2</v>
+      </c>
+      <c r="F94" s="17">
+        <v>18392.725699999999</v>
+      </c>
+      <c r="G94" s="17">
+        <v>13874.9768</v>
+      </c>
+      <c r="H94" s="17">
+        <v>2</v>
+      </c>
+      <c r="I94" s="18">
+        <v>2</v>
+      </c>
+      <c r="J94" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="15" t="s">
         <v>103</v>
       </c>
       <c r="B95" s="8">
         <v>20181116001089</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C95" s="19">
+        <v>1</v>
+      </c>
+      <c r="D95" s="19">
+        <v>2</v>
+      </c>
+      <c r="E95" s="19">
+        <v>0.50722999999999996</v>
+      </c>
+      <c r="F95" s="17">
+        <v>17904.473999999998</v>
+      </c>
+      <c r="G95" s="17">
+        <v>19764.319200000002</v>
+      </c>
+      <c r="H95" s="17">
+        <v>3</v>
+      </c>
+      <c r="I95" s="18">
+        <v>1</v>
+      </c>
+      <c r="J95" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="15" t="s">
         <v>104</v>
       </c>
       <c r="B96" s="8">
         <v>20181214000208</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C96" s="19">
+        <v>0</v>
+      </c>
+      <c r="D96" s="19">
+        <v>0</v>
+      </c>
+      <c r="E96" s="19">
+        <v>0</v>
+      </c>
+      <c r="F96" s="17">
+        <v>19518.891</v>
+      </c>
+      <c r="G96" s="17">
+        <v>23292.3878</v>
+      </c>
+      <c r="H96" s="17">
+        <v>4</v>
+      </c>
+      <c r="I96" s="18">
+        <v>2</v>
+      </c>
+      <c r="J96" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="15" t="s">
         <v>105</v>
       </c>
       <c r="B97" s="8">
         <v>20180412001795</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C97" s="19">
+        <v>0</v>
+      </c>
+      <c r="D97" s="19">
+        <v>0</v>
+      </c>
+      <c r="E97" s="19">
+        <v>0</v>
+      </c>
+      <c r="F97" s="17">
+        <v>11826.061400000001</v>
+      </c>
+      <c r="G97" s="17">
+        <v>15339.354499999999</v>
+      </c>
+      <c r="H97" s="17">
+        <v>5</v>
+      </c>
+      <c r="I97" s="18">
+        <v>5</v>
+      </c>
+      <c r="J97" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="15" t="s">
         <v>106</v>
       </c>
       <c r="B98" s="8">
         <v>20180316001329</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C98" s="19">
+        <v>1</v>
+      </c>
+      <c r="D98" s="19">
+        <v>1</v>
+      </c>
+      <c r="E98" s="19">
+        <v>0.12436</v>
+      </c>
+      <c r="F98" s="17">
+        <v>71868.425300000003</v>
+      </c>
+      <c r="G98" s="17">
+        <v>65095.680200000003</v>
+      </c>
+      <c r="H98" s="17">
+        <v>4</v>
+      </c>
+      <c r="I98" s="18">
+        <v>4</v>
+      </c>
+      <c r="J98" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="15" t="s">
         <v>107</v>
       </c>
       <c r="B99" s="8">
         <v>20180802001789</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C99" s="19">
+        <v>0</v>
+      </c>
+      <c r="D99" s="19">
+        <v>0</v>
+      </c>
+      <c r="E99" s="19">
+        <v>0</v>
+      </c>
+      <c r="F99" s="17">
+        <v>24339.698</v>
+      </c>
+      <c r="G99" s="17">
+        <v>14867.723099999999</v>
+      </c>
+      <c r="H99" s="17">
+        <v>3</v>
+      </c>
+      <c r="I99" s="18">
+        <v>1</v>
+      </c>
+      <c r="J99" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="15" t="s">
         <v>108</v>
       </c>
       <c r="B100" s="8">
         <v>20181010000767</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C100" s="19">
+        <v>0</v>
+      </c>
+      <c r="D100" s="19">
+        <v>0</v>
+      </c>
+      <c r="E100" s="19">
+        <v>0</v>
+      </c>
+      <c r="F100" s="17">
+        <v>18757.225600000002</v>
+      </c>
+      <c r="G100" s="17">
+        <v>13534.4236</v>
+      </c>
+      <c r="H100" s="17">
+        <v>3</v>
+      </c>
+      <c r="I100" s="18">
+        <v>2</v>
+      </c>
+      <c r="J100" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="15" t="s">
         <v>109</v>
       </c>
       <c r="B101" s="8">
         <v>20180612002507</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C101" s="19">
+        <v>1</v>
+      </c>
+      <c r="D101" s="19">
+        <v>2.5</v>
+      </c>
+      <c r="E101" s="19">
+        <v>0.33764</v>
+      </c>
+      <c r="F101" s="17">
+        <v>8654.1573499999995</v>
+      </c>
+      <c r="G101" s="17">
+        <v>8769.4562800000003</v>
+      </c>
+      <c r="H101" s="17">
+        <v>1</v>
+      </c>
+      <c r="I101" s="18">
+        <v>5</v>
+      </c>
+      <c r="J101" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="15" t="s">
         <v>110</v>
       </c>
       <c r="B102" s="8">
         <v>20180620002296</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C102" s="19">
+        <v>1</v>
+      </c>
+      <c r="D102" s="19">
+        <v>3</v>
+      </c>
+      <c r="E102" s="19">
+        <v>0.24612000000000001</v>
+      </c>
+      <c r="F102" s="17">
+        <v>6896.2447899999997</v>
+      </c>
+      <c r="G102" s="17">
+        <v>7154.6235500000003</v>
+      </c>
+      <c r="H102" s="17">
+        <v>5</v>
+      </c>
+      <c r="I102" s="18">
+        <v>3</v>
+      </c>
+      <c r="J102" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="15" t="s">
         <v>111</v>
       </c>
       <c r="B103" s="8">
         <v>20180314000010</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C103" s="19">
+        <v>0</v>
+      </c>
+      <c r="D103" s="19">
+        <v>0</v>
+      </c>
+      <c r="E103" s="19">
+        <v>0.13494999999999999</v>
+      </c>
+      <c r="F103" s="17">
+        <v>20493.004300000001</v>
+      </c>
+      <c r="G103" s="17">
+        <v>14942.678900000001</v>
+      </c>
+      <c r="H103" s="17">
+        <v>3</v>
+      </c>
+      <c r="I103" s="18">
+        <v>2</v>
+      </c>
+      <c r="J103" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="15" t="s">
         <v>112</v>
       </c>
       <c r="B104" s="9">
         <v>20180311000432</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C104" s="19">
+        <v>1</v>
+      </c>
+      <c r="D104" s="19">
+        <v>2.4</v>
+      </c>
+      <c r="E104" s="19">
+        <v>0.39412999999999998</v>
+      </c>
+      <c r="F104" s="17">
+        <v>10984.3899</v>
+      </c>
+      <c r="G104" s="17">
+        <v>13812.404399999999</v>
+      </c>
+      <c r="H104" s="17">
+        <v>4</v>
+      </c>
+      <c r="I104" s="18">
+        <v>2</v>
+      </c>
+      <c r="J104" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="15" t="s">
         <v>113</v>
       </c>
       <c r="B105" s="9">
         <v>20180708000024</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C105" s="19">
+        <v>1</v>
+      </c>
+      <c r="D105" s="19">
+        <v>2</v>
+      </c>
+      <c r="E105" s="19">
+        <v>0.23791000000000001</v>
+      </c>
+      <c r="F105" s="17">
+        <v>18606.230500000001</v>
+      </c>
+      <c r="G105" s="17">
+        <v>19945.740699999998</v>
+      </c>
+      <c r="H105" s="17">
+        <v>5</v>
+      </c>
+      <c r="I105" s="18">
+        <v>2</v>
+      </c>
+      <c r="J105" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="15" t="s">
         <v>114</v>
       </c>
       <c r="B106" s="9">
         <v>20181015001677</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C106" s="19">
+        <v>0</v>
+      </c>
+      <c r="D106" s="19">
+        <v>0</v>
+      </c>
+      <c r="E106" s="19">
+        <v>0.17185</v>
+      </c>
+      <c r="F106" s="17">
+        <v>19280.960500000001</v>
+      </c>
+      <c r="G106" s="17">
+        <v>13480.957700000001</v>
+      </c>
+      <c r="H106" s="17">
+        <v>2</v>
+      </c>
+      <c r="I106" s="18">
+        <v>1</v>
+      </c>
+      <c r="J106" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="15" t="s">
         <v>115</v>
       </c>
       <c r="B107" s="9">
         <v>20190105000694</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C107" s="19">
+        <v>1</v>
+      </c>
+      <c r="D107" s="19">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E107" s="19">
+        <v>0</v>
+      </c>
+      <c r="F107" s="17">
+        <v>14233.8125</v>
+      </c>
+      <c r="G107" s="17">
+        <v>12842.626700000001</v>
+      </c>
+      <c r="H107" s="17">
+        <v>5</v>
+      </c>
+      <c r="I107" s="18">
+        <v>3</v>
+      </c>
+      <c r="J107" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="15" t="s">
         <v>116</v>
       </c>
       <c r="B108" s="9">
         <v>20190108002459</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C108" s="19">
+        <v>0</v>
+      </c>
+      <c r="D108" s="19">
+        <v>0</v>
+      </c>
+      <c r="E108" s="19">
+        <v>0</v>
+      </c>
+      <c r="F108" s="17">
+        <v>19937.087299999999</v>
+      </c>
+      <c r="G108" s="17">
+        <v>21266.351500000001</v>
+      </c>
+      <c r="H108" s="17">
+        <v>5</v>
+      </c>
+      <c r="I108" s="18">
+        <v>1</v>
+      </c>
+      <c r="J108" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="15" t="s">
         <v>117</v>
       </c>
       <c r="B109" s="9">
         <v>20190519000853</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C109" s="19">
+        <v>0</v>
+      </c>
+      <c r="D109" s="19">
+        <v>0</v>
+      </c>
+      <c r="E109" s="19">
+        <v>0.26469999999999999</v>
+      </c>
+      <c r="F109" s="17">
+        <v>3982.0873099999999</v>
+      </c>
+      <c r="G109" s="17">
+        <v>4263.9262399999998</v>
+      </c>
+      <c r="H109" s="17">
+        <v>1</v>
+      </c>
+      <c r="I109" s="18">
+        <v>5</v>
+      </c>
+      <c r="J109" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="15" t="s">
         <v>118</v>
       </c>
       <c r="B110" s="9">
         <v>20190526000209</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C110" s="19">
+        <v>0</v>
+      </c>
+      <c r="D110" s="19">
+        <v>0</v>
+      </c>
+      <c r="E110" s="19">
+        <v>0.10258</v>
+      </c>
+      <c r="F110" s="17">
+        <v>10862.912700000001</v>
+      </c>
+      <c r="G110" s="17">
+        <v>10581.0738</v>
+      </c>
+      <c r="H110" s="17">
+        <v>1</v>
+      </c>
+      <c r="I110" s="18">
+        <v>3</v>
+      </c>
+      <c r="J110" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="15" t="s">
         <v>119</v>
       </c>
       <c r="B111" s="9">
         <v>20190701002502</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C111" s="19">
+        <v>1</v>
+      </c>
+      <c r="D111" s="19">
+        <v>7.4</v>
+      </c>
+      <c r="E111" s="19">
+        <v>5.28E-2</v>
+      </c>
+      <c r="F111" s="17">
+        <v>13030.9496</v>
+      </c>
+      <c r="G111" s="17">
+        <v>8223.5533599999999</v>
+      </c>
+      <c r="H111" s="17">
+        <v>2</v>
+      </c>
+      <c r="I111" s="18">
+        <v>2</v>
+      </c>
+      <c r="J111" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="15" t="s">
         <v>120</v>
       </c>
       <c r="B112" s="9">
         <v>20190716000013</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C112" s="19">
+        <v>0</v>
+      </c>
+      <c r="D112" s="19">
+        <v>0</v>
+      </c>
+      <c r="E112" s="19">
+        <v>0.28643999999999997</v>
+      </c>
+      <c r="F112" s="17">
+        <v>20056.087299999999</v>
+      </c>
+      <c r="G112" s="17">
+        <v>16936.0808</v>
+      </c>
+      <c r="H112" s="17">
+        <v>3</v>
+      </c>
+      <c r="I112" s="18">
+        <v>2</v>
+      </c>
+      <c r="J112" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="15" t="s">
         <v>121</v>
       </c>
       <c r="B113" s="9">
         <v>20190717001385</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C113" s="19">
+        <v>0</v>
+      </c>
+      <c r="D113" s="19">
+        <v>0</v>
+      </c>
+      <c r="E113" s="19">
+        <v>0</v>
+      </c>
+      <c r="F113" s="17">
+        <v>14483.960499999999</v>
+      </c>
+      <c r="G113" s="17">
+        <v>8683.9577200000003</v>
+      </c>
+      <c r="H113" s="17">
+        <v>2</v>
+      </c>
+      <c r="I113" s="18">
+        <v>1</v>
+      </c>
+      <c r="J113" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="15" t="s">
         <v>122</v>
       </c>
       <c r="B114" s="9">
         <v>20190727000556</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C114" s="19">
+        <v>0</v>
+      </c>
+      <c r="D114" s="19">
+        <v>0</v>
+      </c>
+      <c r="E114" s="19">
+        <v>2.6023999999999999E-2</v>
+      </c>
+      <c r="F114" s="17">
+        <v>29389.039499999999</v>
+      </c>
+      <c r="G114" s="17">
+        <v>26566.414700000001</v>
+      </c>
+      <c r="H114" s="17">
+        <v>4</v>
+      </c>
+      <c r="I114" s="18">
+        <v>5</v>
+      </c>
+      <c r="J114" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="15" t="s">
         <v>123</v>
       </c>
       <c r="B115" s="9">
         <v>20190803000014</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C115" s="19">
+        <v>1</v>
+      </c>
+      <c r="D115" s="19">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E115" s="19">
+        <v>0.18561</v>
+      </c>
+      <c r="F115" s="17">
+        <v>10091.6101</v>
+      </c>
+      <c r="G115" s="17">
+        <v>8741.8242200000004</v>
+      </c>
+      <c r="H115" s="17">
+        <v>5</v>
+      </c>
+      <c r="I115" s="18">
+        <v>2</v>
+      </c>
+      <c r="J115" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="15" t="s">
         <v>124</v>
       </c>
       <c r="B116" s="9">
         <v>20190901000442</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C116" s="19">
+        <v>1</v>
+      </c>
+      <c r="D116" s="19">
+        <v>12.8</v>
+      </c>
+      <c r="E116" s="19">
+        <v>0.11276</v>
+      </c>
+      <c r="F116" s="17">
+        <v>57.117698500000003</v>
+      </c>
+      <c r="G116" s="17">
+        <v>3714.7810599999998</v>
+      </c>
+      <c r="H116" s="17">
+        <v>2</v>
+      </c>
+      <c r="I116" s="18">
+        <v>0</v>
+      </c>
+      <c r="J116" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="15" t="s">
         <v>125</v>
       </c>
       <c r="B117" s="9">
         <v>20190903000373</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C117" s="19">
+        <v>1</v>
+      </c>
+      <c r="D117" s="19">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E117" s="19">
+        <v>0</v>
+      </c>
+      <c r="F117" s="17">
+        <v>10730.4789</v>
+      </c>
+      <c r="G117" s="17">
+        <v>10569.9761</v>
+      </c>
+      <c r="H117" s="17">
+        <v>1</v>
+      </c>
+      <c r="I117" s="18">
+        <v>4</v>
+      </c>
+      <c r="J117" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="15" t="s">
         <v>126</v>
       </c>
       <c r="B118" s="9">
         <v>20190904002299</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C118" s="19">
+        <v>1</v>
+      </c>
+      <c r="D118" s="19">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E118" s="19">
+        <v>0</v>
+      </c>
+      <c r="F118" s="17">
+        <v>37589.8125</v>
+      </c>
+      <c r="G118" s="17">
+        <v>40784.188499999997</v>
+      </c>
+      <c r="H118" s="17">
+        <v>3</v>
+      </c>
+      <c r="I118" s="18">
+        <v>5</v>
+      </c>
+      <c r="J118" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="15" t="s">
         <v>127</v>
       </c>
       <c r="B119" s="9">
         <v>20190906001283</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C119" s="19">
+        <v>1</v>
+      </c>
+      <c r="D119" s="19">
+        <v>2.7</v>
+      </c>
+      <c r="E119" s="19">
+        <v>0.23232</v>
+      </c>
+      <c r="F119" s="17">
+        <v>10317.3899</v>
+      </c>
+      <c r="G119" s="17">
+        <v>4809.4927900000002</v>
+      </c>
+      <c r="H119" s="17">
+        <v>2</v>
+      </c>
+      <c r="I119" s="18">
+        <v>2</v>
+      </c>
+      <c r="J119" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="15" t="s">
         <v>128</v>
       </c>
       <c r="B120" s="9">
         <v>20190917002094</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C120" s="19">
+        <v>1</v>
+      </c>
+      <c r="D120" s="19">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E120" s="19">
+        <v>0.21887000000000001</v>
+      </c>
+      <c r="F120" s="17">
+        <v>9720.1874900000003</v>
+      </c>
+      <c r="G120" s="17">
+        <v>11111.373299999999</v>
+      </c>
+      <c r="H120" s="17">
+        <v>5</v>
+      </c>
+      <c r="I120" s="18">
+        <v>3</v>
+      </c>
+      <c r="J120" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="15" t="s">
         <v>129</v>
       </c>
       <c r="B121" s="9">
         <v>20190923002580</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C121" s="19">
+        <v>0</v>
+      </c>
+      <c r="D121" s="19">
+        <v>0</v>
+      </c>
+      <c r="E121" s="19">
+        <v>0.68289999999999995</v>
+      </c>
+      <c r="F121" s="17">
+        <v>19571.912700000001</v>
+      </c>
+      <c r="G121" s="17">
+        <v>19290.073799999998</v>
+      </c>
+      <c r="H121" s="17">
+        <v>1</v>
+      </c>
+      <c r="I121" s="18">
+        <v>5</v>
+      </c>
+      <c r="J121" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="15" t="s">
         <v>130</v>
       </c>
       <c r="B122" s="9">
         <v>20191003000352</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C122" s="19">
+        <v>1</v>
+      </c>
+      <c r="D122" s="19">
+        <v>4</v>
+      </c>
+      <c r="E122" s="19">
+        <v>0</v>
+      </c>
+      <c r="F122" s="17">
+        <v>12019.757</v>
+      </c>
+      <c r="G122" s="17">
+        <v>13390.1834</v>
+      </c>
+      <c r="H122" s="17">
+        <v>5</v>
+      </c>
+      <c r="I122" s="18">
+        <v>1</v>
+      </c>
+      <c r="J122" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="15" t="s">
         <v>131</v>
       </c>
       <c r="B123" s="9">
         <v>20191004001025</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C123" s="19">
+        <v>1</v>
+      </c>
+      <c r="D123" s="19">
+        <v>2.4</v>
+      </c>
+      <c r="E123" s="19">
+        <v>0</v>
+      </c>
+      <c r="F123" s="17">
+        <v>1605.38993</v>
+      </c>
+      <c r="G123" s="17">
+        <v>1870.0952199999999</v>
+      </c>
+      <c r="H123" s="17">
+        <v>1</v>
+      </c>
+      <c r="I123" s="18">
+        <v>2</v>
+      </c>
+      <c r="J123" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="15" t="s">
         <v>132</v>
       </c>
       <c r="B124" s="9">
         <v>20191027000468</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C124" s="19">
+        <v>0</v>
+      </c>
+      <c r="D124" s="19">
+        <v>0</v>
+      </c>
+      <c r="E124" s="19">
+        <v>0.32568999999999998</v>
+      </c>
+      <c r="F124" s="17">
+        <v>17648.634600000001</v>
+      </c>
+      <c r="G124" s="17">
+        <v>17933.892199999998</v>
+      </c>
+      <c r="H124" s="17">
+        <v>1</v>
+      </c>
+      <c r="I124" s="18">
+        <v>1</v>
+      </c>
+      <c r="J124" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="15" t="s">
         <v>133</v>
       </c>
       <c r="B125" s="9">
         <v>20191028002738</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C125" s="19">
+        <v>1</v>
+      </c>
+      <c r="D125" s="19">
+        <v>2.7</v>
+      </c>
+      <c r="E125" s="19">
+        <v>5.1895999999999998E-2</v>
+      </c>
+      <c r="F125" s="17">
+        <v>8787.3899299999994</v>
+      </c>
+      <c r="G125" s="17">
+        <v>10137.175800000001</v>
+      </c>
+      <c r="H125" s="17">
+        <v>5</v>
+      </c>
+      <c r="I125" s="18">
+        <v>1</v>
+      </c>
+      <c r="J125" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="15" t="s">
         <v>134</v>
       </c>
       <c r="B126" s="9">
         <v>20191024001280</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C126" s="19">
+        <v>1</v>
+      </c>
+      <c r="D126" s="19">
+        <v>29.9</v>
+      </c>
+      <c r="E126" s="19">
+        <v>0.38774999999999998</v>
+      </c>
+      <c r="F126" s="17">
+        <v>2010.6286600000001</v>
+      </c>
+      <c r="G126" s="17">
+        <v>2769.5569799999998</v>
+      </c>
+      <c r="H126" s="17">
+        <v>2</v>
+      </c>
+      <c r="I126" s="18">
+        <v>2</v>
+      </c>
+      <c r="J126" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="15" t="s">
         <v>135</v>
       </c>
       <c r="B127" s="9">
         <v>20191030001526</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C127" s="19">
+        <v>1</v>
+      </c>
+      <c r="D127" s="19">
+        <v>2</v>
+      </c>
+      <c r="E127" s="19">
+        <v>0</v>
+      </c>
+      <c r="F127" s="17">
+        <v>19409.230500000001</v>
+      </c>
+      <c r="G127" s="17">
+        <v>16276.8923</v>
+      </c>
+      <c r="H127" s="17">
+        <v>3</v>
+      </c>
+      <c r="I127" s="18">
+        <v>1</v>
+      </c>
+      <c r="J127" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="15" t="s">
         <v>136</v>
       </c>
       <c r="B128" s="9">
         <v>20191111002510</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C128" s="19">
+        <v>1</v>
+      </c>
+      <c r="D128" s="19">
+        <v>1.9</v>
+      </c>
+      <c r="E128" s="19">
+        <v>0.14380000000000001</v>
+      </c>
+      <c r="F128" s="17">
+        <v>6566.2304899999999</v>
+      </c>
+      <c r="G128" s="17">
+        <v>3433.8923</v>
+      </c>
+      <c r="H128" s="17">
+        <v>1</v>
+      </c>
+      <c r="I128" s="18">
+        <v>1</v>
+      </c>
+      <c r="J128" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="15" t="s">
         <v>137</v>
       </c>
       <c r="B129" s="9">
         <v>20191126002590</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C129" s="19">
+        <v>0</v>
+      </c>
+      <c r="D129" s="19">
+        <v>0</v>
+      </c>
+      <c r="E129" s="19">
+        <v>3.3446999999999998E-2</v>
+      </c>
+      <c r="F129" s="17">
+        <v>13576.087299999999</v>
+      </c>
+      <c r="G129" s="17">
+        <v>14905.351500000001</v>
+      </c>
+      <c r="H129" s="17">
+        <v>5</v>
+      </c>
+      <c r="I129" s="18">
+        <v>1</v>
+      </c>
+      <c r="J129" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="15" t="s">
         <v>138</v>
       </c>
       <c r="B130" s="9">
         <v>20191127002176</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C130" s="19">
+        <v>0</v>
+      </c>
+      <c r="D130" s="19">
+        <v>0</v>
+      </c>
+      <c r="E130" s="19">
+        <v>0</v>
+      </c>
+      <c r="F130" s="17">
+        <v>7825.0873099999999</v>
+      </c>
+      <c r="G130" s="17">
+        <v>9154.3515100000004</v>
+      </c>
+      <c r="H130" s="17">
+        <v>5</v>
+      </c>
+      <c r="I130" s="18">
+        <v>1</v>
+      </c>
+      <c r="J130" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="15" t="s">
         <v>139</v>
       </c>
       <c r="B131" s="9">
         <v>20191208000592</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C131" s="19">
+        <v>0</v>
+      </c>
+      <c r="D131" s="19">
+        <v>0</v>
+      </c>
+      <c r="E131" s="19">
+        <v>0.28917999999999999</v>
+      </c>
+      <c r="F131" s="17">
+        <v>7594.0873099999999</v>
+      </c>
+      <c r="G131" s="17">
+        <v>7875.9262399999998</v>
+      </c>
+      <c r="H131" s="17">
+        <v>5</v>
+      </c>
+      <c r="I131" s="18">
+        <v>1</v>
+      </c>
+      <c r="J131" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="15" t="s">
         <v>140</v>
       </c>
       <c r="B132" s="9">
         <v>20191224000008</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C132" s="19">
+        <v>1</v>
+      </c>
+      <c r="D132" s="19">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E132" s="19">
+        <v>0.31263000000000002</v>
+      </c>
+      <c r="F132" s="17">
+        <v>31194.610100000002</v>
+      </c>
+      <c r="G132" s="17">
+        <v>36702.5072</v>
+      </c>
+      <c r="H132" s="17">
+        <v>2</v>
+      </c>
+      <c r="I132" s="18">
+        <v>2</v>
+      </c>
+      <c r="J132" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="15" t="s">
         <v>141</v>
       </c>
       <c r="B133" s="9">
         <v>20191228000237</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C133" s="19">
+        <v>1</v>
+      </c>
+      <c r="D133" s="19">
+        <v>1.6</v>
+      </c>
+      <c r="E133" s="19">
+        <v>0.39629999999999999</v>
+      </c>
+      <c r="F133" s="17">
+        <v>12358.7695</v>
+      </c>
+      <c r="G133" s="17">
+        <v>9532.5621900000006</v>
+      </c>
+      <c r="H133" s="17">
+        <v>4</v>
+      </c>
+      <c r="I133" s="18">
+        <v>5</v>
+      </c>
+      <c r="J133" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="15" t="s">
         <v>142</v>
       </c>
       <c r="B134" s="14">
         <v>20160413000006</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C134" s="19">
+        <v>0</v>
+      </c>
+      <c r="D134" s="19">
+        <v>0</v>
+      </c>
+      <c r="E134" s="19">
+        <v>0</v>
+      </c>
+      <c r="F134" s="17">
+        <v>29072</v>
+      </c>
+      <c r="G134" s="17">
+        <v>29072</v>
+      </c>
+      <c r="H134" s="17">
+        <v>1</v>
+      </c>
+      <c r="I134" s="18">
+        <v>5</v>
+      </c>
+      <c r="J134" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="15" t="s">
         <v>143</v>
       </c>
       <c r="B135" s="14">
         <v>20161215001667</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C135" s="19">
+        <v>0</v>
+      </c>
+      <c r="D135" s="19">
+        <v>0</v>
+      </c>
+      <c r="E135" s="19">
+        <v>0.34476000000000001</v>
+      </c>
+      <c r="F135" s="17">
+        <v>23568.963500000002</v>
+      </c>
+      <c r="G135" s="17">
+        <v>18440.919900000001</v>
+      </c>
+      <c r="H135" s="17">
+        <v>1</v>
+      </c>
+      <c r="I135" s="18">
+        <v>5</v>
+      </c>
+      <c r="J135" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="15" t="s">
         <v>144</v>
       </c>
       <c r="B136" s="14">
         <v>20200112000228</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C136" s="19">
+        <v>0</v>
+      </c>
+      <c r="D136" s="19">
+        <v>0</v>
+      </c>
+      <c r="E136" s="19">
+        <v>0.22284999999999999</v>
+      </c>
+      <c r="F136" s="17">
+        <v>5730.3221899999999</v>
+      </c>
+      <c r="G136" s="17">
+        <v>9255.33338</v>
+      </c>
+      <c r="H136" s="17">
+        <v>5</v>
+      </c>
+      <c r="I136" s="18">
+        <v>2</v>
+      </c>
+      <c r="J136" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="15" t="s">
         <v>145</v>
       </c>
       <c r="B137" s="14">
         <v>20200101000392</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C137" s="19">
+        <v>0</v>
+      </c>
+      <c r="D137" s="19">
+        <v>0</v>
+      </c>
+      <c r="E137" s="19">
+        <v>3.7843000000000002E-2</v>
+      </c>
+      <c r="F137" s="17">
+        <v>17409.0435</v>
+      </c>
+      <c r="G137" s="17">
+        <v>16091.9393</v>
+      </c>
+      <c r="H137" s="17">
+        <v>1</v>
+      </c>
+      <c r="I137" s="18">
+        <v>2</v>
+      </c>
+      <c r="J137" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="15" t="s">
         <v>146</v>
       </c>
       <c r="B138" s="14">
         <v>20201130003288</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C138" s="19">
+        <v>0</v>
+      </c>
+      <c r="D138" s="19">
+        <v>0</v>
+      </c>
+      <c r="E138" s="19">
+        <v>8.5467000000000001E-2</v>
+      </c>
+      <c r="F138" s="17">
+        <v>17862.315999999999</v>
+      </c>
+      <c r="G138" s="17">
+        <v>16189.544400000001</v>
+      </c>
+      <c r="H138" s="17">
+        <v>2</v>
+      </c>
+      <c r="I138" s="18">
+        <v>1</v>
+      </c>
+      <c r="J138" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="15" t="s">
         <v>147</v>
       </c>
       <c r="B139" s="14">
         <v>20201203002778</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C139" s="19">
+        <v>1</v>
+      </c>
+      <c r="D139" s="19">
+        <v>2</v>
+      </c>
+      <c r="E139" s="19">
+        <v>0.36364000000000002</v>
+      </c>
+      <c r="F139" s="17">
+        <v>20953.126799999998</v>
+      </c>
+      <c r="G139" s="17">
+        <v>15748.9553</v>
+      </c>
+      <c r="H139" s="17">
+        <v>4</v>
+      </c>
+      <c r="I139" s="18">
+        <v>2</v>
+      </c>
+      <c r="J139" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="15" t="s">
         <v>148</v>
       </c>
       <c r="B140" s="14">
         <v>20201217002368</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C140" s="19">
+        <v>0</v>
+      </c>
+      <c r="D140" s="19">
+        <v>0</v>
+      </c>
+      <c r="E140" s="19">
+        <v>0</v>
+      </c>
+      <c r="F140" s="17">
+        <v>22521.992200000001</v>
+      </c>
+      <c r="G140" s="17">
+        <v>16570.241600000001</v>
+      </c>
+      <c r="H140" s="17">
+        <v>3</v>
+      </c>
+      <c r="I140" s="18">
+        <v>1</v>
+      </c>
+      <c r="J140" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="15" t="s">
         <v>149</v>
       </c>
       <c r="B141" s="14">
         <v>20200403000012</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C141" s="19">
+        <v>0</v>
+      </c>
+      <c r="D141" s="19">
+        <v>0</v>
+      </c>
+      <c r="E141" s="19">
+        <v>0.26652999999999999</v>
+      </c>
+      <c r="F141" s="17">
+        <v>20998.284</v>
+      </c>
+      <c r="G141" s="17">
+        <v>20603.063999999998</v>
+      </c>
+      <c r="H141" s="17">
+        <v>1</v>
+      </c>
+      <c r="I141" s="18">
+        <v>1</v>
+      </c>
+      <c r="J141" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="15" t="s">
         <v>150</v>
       </c>
       <c r="B142" s="14">
         <v>20200814000015</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C142" s="19">
+        <v>1</v>
+      </c>
+      <c r="D142" s="19">
+        <v>4.5</v>
+      </c>
+      <c r="E142" s="19">
+        <v>0.33495999999999998</v>
+      </c>
+      <c r="F142" s="17">
+        <v>25543.226900000001</v>
+      </c>
+      <c r="G142" s="17">
+        <v>21853.9339</v>
+      </c>
+      <c r="H142" s="17">
+        <v>5</v>
+      </c>
+      <c r="I142" s="18">
+        <v>1</v>
+      </c>
+      <c r="J142" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="15" t="s">
         <v>151</v>
       </c>
       <c r="B143" s="14">
         <v>20200412000331</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C143" s="19">
+        <v>0</v>
+      </c>
+      <c r="D143" s="19">
+        <v>0</v>
+      </c>
+      <c r="E143" s="19">
+        <v>0</v>
+      </c>
+      <c r="F143" s="17">
+        <v>18727.3318</v>
+      </c>
+      <c r="G143" s="17">
+        <v>22651.658899999999</v>
+      </c>
+      <c r="H143" s="17">
+        <v>5</v>
+      </c>
+      <c r="I143" s="18">
+        <v>2</v>
+      </c>
+      <c r="J143" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="15" t="s">
         <v>152</v>
       </c>
       <c r="B144" s="14">
         <v>20200711001264</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C144" s="19">
+        <v>0</v>
+      </c>
+      <c r="D144" s="19">
+        <v>0</v>
+      </c>
+      <c r="E144" s="19">
+        <v>0.56698999999999999</v>
+      </c>
+      <c r="F144" s="17">
+        <v>17813.021499999999</v>
+      </c>
+      <c r="G144" s="17">
+        <v>14911.046899999999</v>
+      </c>
+      <c r="H144" s="17">
+        <v>5</v>
+      </c>
+      <c r="I144" s="18">
+        <v>4</v>
+      </c>
+      <c r="J144" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="15" t="s">
         <v>153</v>
       </c>
       <c r="B145" s="14">
         <v>20200411000014</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C145" s="19">
+        <v>1</v>
+      </c>
+      <c r="D145" s="19">
+        <v>1.5</v>
+      </c>
+      <c r="E145" s="19">
+        <v>1.822E-2</v>
+      </c>
+      <c r="F145" s="17">
+        <v>40211.572099999998</v>
+      </c>
+      <c r="G145" s="17">
+        <v>40146.5962</v>
+      </c>
+      <c r="H145" s="17">
+        <v>2</v>
+      </c>
+      <c r="I145" s="18">
+        <v>5</v>
+      </c>
+      <c r="J145" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="15" t="s">
         <v>154</v>
       </c>
       <c r="B146" s="14">
         <v>20200214000572</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C146" s="19">
+        <v>0</v>
+      </c>
+      <c r="D146" s="19">
+        <v>0</v>
+      </c>
+      <c r="E146" s="19">
+        <v>0.69403999999999999</v>
+      </c>
+      <c r="F146" s="17">
+        <v>11315.9082</v>
+      </c>
+      <c r="G146" s="17">
+        <v>12943.545</v>
+      </c>
+      <c r="H146" s="17">
+        <v>4</v>
+      </c>
+      <c r="I146" s="18">
+        <v>2</v>
+      </c>
+      <c r="J146" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="15" t="s">
         <v>155</v>
       </c>
       <c r="B147" s="14">
         <v>20200124000041</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C147" s="19">
+        <v>0</v>
+      </c>
+      <c r="D147" s="19">
+        <v>0</v>
+      </c>
+      <c r="E147" s="19">
+        <v>0</v>
+      </c>
+      <c r="F147" s="17">
+        <v>15026.739100000001</v>
+      </c>
+      <c r="G147" s="17">
+        <v>13152.9357</v>
+      </c>
+      <c r="H147" s="17">
+        <v>1</v>
+      </c>
+      <c r="I147" s="18">
+        <v>2</v>
+      </c>
+      <c r="J147" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="15" t="s">
         <v>156</v>
       </c>
       <c r="B148" s="14">
         <v>20200613001086</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C148" s="19">
+        <v>0</v>
+      </c>
+      <c r="D148" s="19">
+        <v>0</v>
+      </c>
+      <c r="E148" s="19">
+        <v>0</v>
+      </c>
+      <c r="F148" s="17">
+        <v>24360.177599999999</v>
+      </c>
+      <c r="G148" s="17">
+        <v>20977.706600000001</v>
+      </c>
+      <c r="H148" s="17">
+        <v>2</v>
+      </c>
+      <c r="I148" s="18">
+        <v>1</v>
+      </c>
+      <c r="J148" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="15" t="s">
         <v>157</v>
       </c>
       <c r="B149" s="14">
         <v>20200531000253</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C149" s="19">
+        <v>0</v>
+      </c>
+      <c r="D149" s="19">
+        <v>0</v>
+      </c>
+      <c r="E149" s="19">
+        <v>0</v>
+      </c>
+      <c r="F149" s="17">
+        <v>22880.099699999999</v>
+      </c>
+      <c r="G149" s="17">
+        <v>12630.1023</v>
+      </c>
+      <c r="H149" s="17">
+        <v>2</v>
+      </c>
+      <c r="I149" s="18">
+        <v>1</v>
+      </c>
+      <c r="J149" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="15" t="s">
         <v>158</v>
       </c>
       <c r="B150" s="14">
         <v>20201220000155</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C150" s="19">
+        <v>1</v>
+      </c>
+      <c r="D150" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="E150" s="19">
+        <v>0.14166999999999999</v>
+      </c>
+      <c r="F150" s="17">
+        <v>15090.822399999999</v>
+      </c>
+      <c r="G150" s="17">
+        <v>15420.7484</v>
+      </c>
+      <c r="H150" s="17">
+        <v>1</v>
+      </c>
+      <c r="I150" s="18">
+        <v>1</v>
+      </c>
+      <c r="J150" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="15" t="s">
         <v>159</v>
       </c>
       <c r="B151" s="14">
         <v>20200609001016</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C151" s="19">
+        <v>0</v>
+      </c>
+      <c r="D151" s="19">
+        <v>0</v>
+      </c>
+      <c r="E151" s="19">
+        <v>0</v>
+      </c>
+      <c r="F151" s="17">
+        <v>19436.9899</v>
+      </c>
+      <c r="G151" s="17">
+        <v>28841.9928</v>
+      </c>
+      <c r="H151" s="17">
+        <v>4</v>
+      </c>
+      <c r="I151" s="18">
+        <v>1</v>
+      </c>
+      <c r="J151" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="15" t="s">
         <v>160</v>
       </c>
       <c r="B152" s="14">
         <v>20200409001101</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C152" s="19">
+        <v>0</v>
+      </c>
+      <c r="D152" s="19">
+        <v>0</v>
+      </c>
+      <c r="E152" s="19">
+        <v>0.36020999999999997</v>
+      </c>
+      <c r="F152" s="17">
+        <v>10114.331200000001</v>
+      </c>
+      <c r="G152" s="17">
+        <v>5400.1784399999997</v>
+      </c>
+      <c r="H152" s="17">
+        <v>3</v>
+      </c>
+      <c r="I152" s="18">
+        <v>1</v>
+      </c>
+      <c r="J152" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="15" t="s">
         <v>161</v>
       </c>
       <c r="B153" s="14">
         <v>20200118000372</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C153" s="19">
+        <v>0</v>
+      </c>
+      <c r="D153" s="19">
+        <v>0</v>
+      </c>
+      <c r="E153" s="19">
+        <v>0.17516999999999999</v>
+      </c>
+      <c r="F153" s="17">
+        <v>15091.810100000001</v>
+      </c>
+      <c r="G153" s="17">
+        <v>17002.501100000001</v>
+      </c>
+      <c r="H153" s="17">
+        <v>2</v>
+      </c>
+      <c r="I153" s="18">
+        <v>3</v>
+      </c>
+      <c r="J153" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="15" t="s">
         <v>162</v>
       </c>
       <c r="B154" s="14">
         <v>20201023001238</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C154" s="19">
+        <v>1</v>
+      </c>
+      <c r="D154" s="19">
+        <v>2</v>
+      </c>
+      <c r="E154" s="19">
+        <v>0.48937000000000003</v>
+      </c>
+      <c r="F154" s="17">
+        <v>8596.0240799999992</v>
+      </c>
+      <c r="G154" s="17">
+        <v>8543.3251199999995</v>
+      </c>
+      <c r="H154" s="17">
+        <v>1</v>
+      </c>
+      <c r="I154" s="18">
+        <v>5</v>
+      </c>
+      <c r="J154" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="15" t="s">
         <v>163</v>
       </c>
       <c r="B155" s="14">
         <v>20201109000009</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C155" s="19">
+        <v>0</v>
+      </c>
+      <c r="D155" s="19">
+        <v>0</v>
+      </c>
+      <c r="E155" s="19">
+        <v>0</v>
+      </c>
+      <c r="F155" s="17">
+        <v>8351.6005800000003</v>
+      </c>
+      <c r="G155" s="17">
+        <v>11427.9287</v>
+      </c>
+      <c r="H155" s="17">
+        <v>5</v>
+      </c>
+      <c r="I155" s="18">
+        <v>5</v>
+      </c>
+      <c r="J155" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="15" t="s">
         <v>164</v>
       </c>
       <c r="B156" s="14">
         <v>20201212001420</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C156" s="19">
+        <v>0</v>
+      </c>
+      <c r="D156" s="19">
+        <v>0</v>
+      </c>
+      <c r="E156" s="19">
+        <v>0.20337</v>
+      </c>
+      <c r="F156" s="17">
+        <v>27430.856299999999</v>
+      </c>
+      <c r="G156" s="17">
+        <v>25069.190999999999</v>
+      </c>
+      <c r="H156" s="17">
+        <v>2</v>
+      </c>
+      <c r="I156" s="18">
+        <v>5</v>
+      </c>
+      <c r="J156" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="15" t="s">
         <v>165</v>
       </c>
       <c r="B157" s="14">
         <v>20201129000299</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C157" s="19">
+        <v>0</v>
+      </c>
+      <c r="D157" s="19">
+        <v>0</v>
+      </c>
+      <c r="E157" s="19">
+        <v>0.30245100000000003</v>
+      </c>
+      <c r="F157" s="17">
+        <v>13442.600399999999</v>
+      </c>
+      <c r="G157" s="17">
+        <v>14065.137199999999</v>
+      </c>
+      <c r="H157" s="17">
+        <v>5</v>
+      </c>
+      <c r="I157" s="18">
+        <v>3</v>
+      </c>
+      <c r="J157" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="15" t="s">
         <v>166</v>
       </c>
       <c r="B158" s="14">
         <v>20200301000025</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C158" s="19">
+        <v>0</v>
+      </c>
+      <c r="D158" s="19">
+        <v>0</v>
+      </c>
+      <c r="E158" s="19">
+        <v>7.4099999999999999E-2</v>
+      </c>
+      <c r="F158" s="17">
+        <v>39977.109100000001</v>
+      </c>
+      <c r="G158" s="17">
+        <v>32867.242400000003</v>
+      </c>
+      <c r="H158" s="17">
+        <v>5</v>
+      </c>
+      <c r="I158" s="18">
+        <v>1</v>
+      </c>
+      <c r="J158" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="15" t="s">
         <v>167</v>
       </c>
       <c r="B159" s="14">
         <v>20200306000927</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C159" s="19">
+        <v>0</v>
+      </c>
+      <c r="D159" s="19">
+        <v>0</v>
+      </c>
+      <c r="E159" s="19">
+        <v>0.17063</v>
+      </c>
+      <c r="F159" s="17">
+        <v>15921.1831</v>
+      </c>
+      <c r="G159" s="17">
+        <v>14003.1762</v>
+      </c>
+      <c r="H159" s="17">
+        <v>1</v>
+      </c>
+      <c r="I159" s="18">
+        <v>2</v>
+      </c>
+      <c r="J159" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" s="15" t="s">
         <v>168</v>
       </c>
       <c r="B160" s="14">
         <v>20201009003102</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C160" s="19">
+        <v>1</v>
+      </c>
+      <c r="D160" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="E160" s="19">
+        <v>0.25651000000000002</v>
+      </c>
+      <c r="F160" s="17">
+        <v>19215.889500000001</v>
+      </c>
+      <c r="G160" s="17">
+        <v>19080.406299999999</v>
+      </c>
+      <c r="H160" s="17">
+        <v>5</v>
+      </c>
+      <c r="I160" s="18">
+        <v>1</v>
+      </c>
+      <c r="J160" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" s="15" t="s">
         <v>169</v>
       </c>
       <c r="B161" s="14">
         <v>20200410001952</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C161" s="19">
+        <v>0</v>
+      </c>
+      <c r="D161" s="19">
+        <v>0</v>
+      </c>
+      <c r="E161" s="19">
+        <v>0.38383400000000001</v>
+      </c>
+      <c r="F161" s="17">
+        <v>11678.925800000001</v>
+      </c>
+      <c r="G161" s="17">
+        <v>10144.0103</v>
+      </c>
+      <c r="H161" s="17">
+        <v>4</v>
+      </c>
+      <c r="I161" s="18">
+        <v>1</v>
+      </c>
+      <c r="J161" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" s="15" t="s">
         <v>170</v>
       </c>
       <c r="B162" s="14">
         <v>20200218000582</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C162" s="19">
+        <v>1</v>
+      </c>
+      <c r="D162" s="19">
+        <v>5</v>
+      </c>
+      <c r="E162" s="19">
+        <v>0.33234799999999998</v>
+      </c>
+      <c r="F162" s="17">
+        <v>4891.6979700000002</v>
+      </c>
+      <c r="G162" s="17">
+        <v>6522.2530100000004</v>
+      </c>
+      <c r="H162" s="17">
+        <v>5</v>
+      </c>
+      <c r="I162" s="18">
+        <v>4</v>
+      </c>
+      <c r="J162" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" s="15" t="s">
         <v>171</v>
       </c>
       <c r="B163" s="14">
         <v>20200821002584</v>
+      </c>
+      <c r="C163" s="19">
+        <v>1</v>
+      </c>
+      <c r="D163" s="19">
+        <v>5.6</v>
+      </c>
+      <c r="E163" s="19">
+        <v>0.14366000000000001</v>
+      </c>
+      <c r="F163" s="17">
+        <v>4539.3865400000004</v>
+      </c>
+      <c r="G163" s="17">
+        <v>4658.9851900000003</v>
+      </c>
+      <c r="H163" s="17">
+        <v>1</v>
+      </c>
+      <c r="I163" s="18">
+        <v>2</v>
+      </c>
+      <c r="J163" s="18">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
